--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.27516880918611</v>
+        <v>21.27516880918612</v>
       </c>
       <c r="C2">
         <v>20.57503470848819</v>
       </c>
       <c r="D2">
-        <v>7.277681469399614</v>
+        <v>7.277681469399616</v>
       </c>
       <c r="E2">
-        <v>10.63654375067049</v>
+        <v>10.63654375067048</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.73300092692169</v>
+        <v>35.73300092692165</v>
       </c>
       <c r="H2">
-        <v>28.95920179598665</v>
+        <v>28.95920179598659</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73758416905461</v>
+        <v>19.73758416905456</v>
       </c>
       <c r="C3">
-        <v>19.0512140866163</v>
+        <v>19.05121408661619</v>
       </c>
       <c r="D3">
-        <v>6.744933852837303</v>
+        <v>6.744933852837294</v>
       </c>
       <c r="E3">
-        <v>10.04216243379611</v>
+        <v>10.04216243379609</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.76928859084921</v>
+        <v>33.76928859084926</v>
       </c>
       <c r="H3">
-        <v>27.61115410037038</v>
+        <v>27.61115410037045</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.77469358059492</v>
+        <v>17.77469358059487</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74913959340453</v>
+        <v>18.74913959340444</v>
       </c>
       <c r="C4">
-        <v>18.07416212591395</v>
+        <v>18.07416212591396</v>
       </c>
       <c r="D4">
-        <v>6.402995367356368</v>
+        <v>6.402995367356293</v>
       </c>
       <c r="E4">
-        <v>9.673568968734495</v>
+        <v>9.673568968734465</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.54961782326821</v>
+        <v>32.54961782326818</v>
       </c>
       <c r="H4">
-        <v>26.78337080282963</v>
+        <v>26.78337080282962</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.89590771992851</v>
+        <v>16.89590771992847</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33489075862536</v>
+        <v>18.33489075862545</v>
       </c>
       <c r="C5">
-        <v>17.66526765906975</v>
+        <v>17.66526765906988</v>
       </c>
       <c r="D5">
-        <v>6.259818034180061</v>
+        <v>6.259818034179905</v>
       </c>
       <c r="E5">
-        <v>9.522497998347221</v>
+        <v>9.52249799834723</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.04927016345386</v>
+        <v>32.04927016345388</v>
       </c>
       <c r="H5">
-        <v>26.44612193742719</v>
+        <v>26.44612193742716</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.52810535348668</v>
+        <v>16.52810535348672</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26540538653622</v>
+        <v>18.26540538653628</v>
       </c>
       <c r="C6">
-        <v>17.59671365745509</v>
+        <v>17.59671365745504</v>
       </c>
       <c r="D6">
-        <v>6.235809026833983</v>
+        <v>6.235809026834024</v>
       </c>
       <c r="E6">
-        <v>9.497362742304157</v>
+        <v>9.497362742304183</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>31.9659951619615</v>
       </c>
       <c r="H6">
-        <v>26.39013114043394</v>
+        <v>26.3901311404339</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.46643931659892</v>
+        <v>16.46643931659891</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74359961945131</v>
+        <v>18.74359961945138</v>
       </c>
       <c r="C7">
-        <v>18.06869151359883</v>
+        <v>18.06869151359908</v>
       </c>
       <c r="D7">
-        <v>6.401080087243264</v>
+        <v>6.401080087243209</v>
       </c>
       <c r="E7">
-        <v>9.671534982955805</v>
+        <v>9.671534982955823</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.54288306830024</v>
+        <v>32.54288306830039</v>
       </c>
       <c r="H7">
-        <v>26.77882203951228</v>
+        <v>26.77882203951242</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.8909869852675</v>
+        <v>16.89098698526755</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.75403103624369</v>
+        <v>20.75403103624365</v>
       </c>
       <c r="C8">
-        <v>20.05801369733498</v>
+        <v>20.05801369733494</v>
       </c>
       <c r="D8">
-        <v>7.097001255518694</v>
+        <v>7.097001255518609</v>
       </c>
       <c r="E8">
-        <v>10.4323725225791</v>
+        <v>10.43237252257909</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.05887430838104</v>
+        <v>35.05887430838109</v>
       </c>
       <c r="H8">
-        <v>28.49444533174742</v>
+        <v>28.49444533174752</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.68008057988629</v>
+        <v>18.6800805798863</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35937013519064</v>
+        <v>24.35937013519051</v>
       </c>
       <c r="C9">
-        <v>23.64688523289056</v>
+        <v>23.6468852328905</v>
       </c>
       <c r="D9">
         <v>8.34937474522124</v>
       </c>
       <c r="E9">
-        <v>11.89581653769564</v>
+        <v>11.89581653769561</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>39.88174981843599</v>
       </c>
       <c r="H9">
-        <v>31.85853034962813</v>
+        <v>31.85853034962815</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.90546396351064</v>
+        <v>21.90546396351057</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.82646296724609</v>
+        <v>26.82646296724618</v>
       </c>
       <c r="C10">
-        <v>26.11988185639783</v>
+        <v>26.11988185639791</v>
       </c>
       <c r="D10">
-        <v>9.209541592713087</v>
+        <v>9.209541592712995</v>
       </c>
       <c r="E10">
         <v>12.95808760342317</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.36941777092159</v>
+        <v>43.36941777092168</v>
       </c>
       <c r="H10">
-        <v>34.33867687190181</v>
+        <v>34.33867687190188</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9157316985989</v>
+        <v>27.91573169859899</v>
       </c>
       <c r="C11">
-        <v>27.21658111224515</v>
+        <v>27.216581112245</v>
       </c>
       <c r="D11">
-        <v>9.590126233499669</v>
+        <v>9.590126233499625</v>
       </c>
       <c r="E11">
-        <v>13.46980899104338</v>
+        <v>13.46980899104343</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.95039236034598</v>
+        <v>44.95039236034599</v>
       </c>
       <c r="H11">
         <v>35.4733945620441</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.10907281240319</v>
+        <v>25.1090728124032</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32410599538841</v>
+        <v>28.32410599538842</v>
       </c>
       <c r="C12">
         <v>27.62854185649179</v>
       </c>
       <c r="D12">
-        <v>9.732934791825706</v>
+        <v>9.732934791825752</v>
       </c>
       <c r="E12">
         <v>13.68026855182039</v>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.54909321663335</v>
+        <v>45.54909321663328</v>
       </c>
       <c r="H12">
-        <v>35.90461190606305</v>
+        <v>35.904611906063</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.47841010918331</v>
+        <v>25.47841010918333</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23632652005943</v>
+        <v>28.23632652005956</v>
       </c>
       <c r="C13">
-        <v>27.53995394730521</v>
+        <v>27.53995394730557</v>
       </c>
       <c r="D13">
-        <v>9.702232596939128</v>
+        <v>9.702232596939144</v>
       </c>
       <c r="E13">
-        <v>13.63499158221656</v>
+        <v>13.63499158221662</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.42013537597843</v>
+        <v>45.4201353759786</v>
       </c>
       <c r="H13">
-        <v>35.81166214174966</v>
+        <v>35.81166214174979</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.39899524126012</v>
+        <v>25.39899524126027</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94940714132511</v>
+        <v>27.94940714132508</v>
       </c>
       <c r="C14">
-        <v>27.25053553701096</v>
+        <v>27.25053553701116</v>
       </c>
       <c r="D14">
-        <v>9.601899982325893</v>
+        <v>9.601899982325973</v>
       </c>
       <c r="E14">
-        <v>13.48714650070047</v>
+        <v>13.48714650070053</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.99964176319781</v>
+        <v>44.99964176319803</v>
       </c>
       <c r="H14">
-        <v>35.50883641287309</v>
+        <v>35.50883641287326</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.13951739737996</v>
+        <v>25.13951739738005</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77314674196707</v>
+        <v>27.77314674196702</v>
       </c>
       <c r="C15">
-        <v>27.0728480661761</v>
+        <v>27.07284806617621</v>
       </c>
       <c r="D15">
-        <v>9.540280198286061</v>
+        <v>9.540280198285968</v>
       </c>
       <c r="E15">
-        <v>13.39643499637855</v>
+        <v>13.39643499637863</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.74210889310147</v>
+        <v>44.74210889310161</v>
       </c>
       <c r="H15">
-        <v>35.3235664107606</v>
+        <v>35.32356641076073</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.98019096075764</v>
+        <v>24.98019096075771</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.75466436930203</v>
+        <v>26.75466436930192</v>
       </c>
       <c r="C16">
-        <v>26.04770040706468</v>
+        <v>26.0477004070648</v>
       </c>
       <c r="D16">
-        <v>9.184472689412477</v>
+        <v>9.184472689412432</v>
       </c>
       <c r="E16">
-        <v>12.92655419816746</v>
+        <v>12.92655419816743</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.26604941695944</v>
+        <v>43.26604941695938</v>
       </c>
       <c r="H16">
-        <v>34.26469705556145</v>
+        <v>34.26469705556142</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.06067759511367</v>
+        <v>24.06067759511363</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12182148445581</v>
+        <v>26.12182148445584</v>
       </c>
       <c r="C17">
-        <v>25.41204205754494</v>
+        <v>25.4120420575447</v>
       </c>
       <c r="D17">
-        <v>8.963604301562949</v>
+        <v>8.96360430156286</v>
       </c>
       <c r="E17">
         <v>12.65016873722972</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.35960947663828</v>
+        <v>42.35960947663827</v>
       </c>
       <c r="H17">
-        <v>33.61713698887633</v>
+        <v>33.61713698887629</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.49027771853994</v>
+        <v>23.49027771853991</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75467432132247</v>
+        <v>25.75467432132251</v>
       </c>
       <c r="C18">
-        <v>25.04371566485031</v>
+        <v>25.04371566485037</v>
       </c>
       <c r="D18">
-        <v>8.835542765698131</v>
+        <v>8.835542765698158</v>
       </c>
       <c r="E18">
-        <v>12.49112561554088</v>
+        <v>12.49112561554089</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.83765985936908</v>
+        <v>41.83765985936918</v>
       </c>
       <c r="H18">
-        <v>33.24524191880461</v>
+        <v>33.24524191880468</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.15968513187295</v>
+        <v>23.15968513187297</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.62980540209042</v>
+        <v>25.62980540209035</v>
       </c>
       <c r="C19">
-        <v>24.91852063916971</v>
+        <v>24.91852063916965</v>
       </c>
       <c r="D19">
-        <v>8.792001126068232</v>
+        <v>8.792001126068246</v>
       </c>
       <c r="E19">
-        <v>12.43725655021072</v>
+        <v>12.43725655021075</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>41.66081459029405</v>
       </c>
       <c r="H19">
-        <v>33.11940667498187</v>
+        <v>33.1194066749819</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.04730308089504</v>
+        <v>23.04730308089502</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>26.18951069737557</v>
       </c>
       <c r="C20">
-        <v>25.47998483628153</v>
+        <v>25.47998483628161</v>
       </c>
       <c r="D20">
-        <v>8.987220551841132</v>
+        <v>8.9872205518411</v>
       </c>
       <c r="E20">
-        <v>12.67959628963592</v>
+        <v>12.67959628963593</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.45615741952803</v>
+        <v>42.45615741952823</v>
       </c>
       <c r="H20">
-        <v>33.68600879112159</v>
+        <v>33.68600879112176</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.5512537177307</v>
+        <v>23.55125371773072</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03378812006605</v>
+        <v>28.03378812006622</v>
       </c>
       <c r="C21">
-        <v>27.33562874838071</v>
+        <v>27.33562874838085</v>
       </c>
       <c r="D21">
-        <v>9.631403635803336</v>
+        <v>9.631403635803473</v>
       </c>
       <c r="E21">
-        <v>13.53060306591124</v>
+        <v>13.5306030659113</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.12314248695969</v>
+        <v>45.12314248695991</v>
       </c>
       <c r="H21">
-        <v>35.59773657981757</v>
+        <v>35.59773657981773</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.21581205257692</v>
+        <v>25.21581205257706</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21557307379975</v>
+        <v>29.21557307379968</v>
       </c>
       <c r="C22">
-        <v>28.52940409672865</v>
+        <v>28.52940409672864</v>
       </c>
       <c r="D22">
-        <v>10.04491422588862</v>
+        <v>10.04491422588856</v>
       </c>
       <c r="E22">
-        <v>14.14131028584634</v>
+        <v>14.1413102858463</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.96638294199732</v>
+        <v>46.96638294199709</v>
       </c>
       <c r="H22">
-        <v>36.85647443080842</v>
+        <v>36.85647443080825</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.28575494508321</v>
+        <v>26.28575494508317</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.58674368582671</v>
+        <v>28.58674368582664</v>
       </c>
       <c r="C23">
-        <v>27.89372224701351</v>
+        <v>27.89372224701346</v>
       </c>
       <c r="D23">
-        <v>9.824814845296464</v>
+        <v>9.824814845296544</v>
       </c>
       <c r="E23">
-        <v>13.81586607058044</v>
+        <v>13.81586607058047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.95191533380441</v>
+        <v>45.95191533380434</v>
       </c>
       <c r="H23">
-        <v>36.18355996002676</v>
+        <v>36.18355996002673</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.71610740615977</v>
+        <v>25.71610740615975</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.15891878356544</v>
+        <v>26.15891878356537</v>
       </c>
       <c r="C24">
-        <v>25.44927692304541</v>
+        <v>25.4492769230454</v>
       </c>
       <c r="D24">
-        <v>8.976547029853089</v>
+        <v>8.976547029853148</v>
       </c>
       <c r="E24">
-        <v>12.66629256597722</v>
+        <v>12.6662925659772</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.41251072327567</v>
+        <v>42.41251072327555</v>
       </c>
       <c r="H24">
-        <v>33.65487065827452</v>
+        <v>33.65487065827447</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.52369480586119</v>
+        <v>23.52369480586113</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>23.41786224750465</v>
       </c>
       <c r="C25">
-        <v>22.70690971594006</v>
+        <v>22.70690971593993</v>
       </c>
       <c r="D25">
-        <v>8.021789476556107</v>
+        <v>8.021789476556149</v>
       </c>
       <c r="E25">
-        <v>11.50271937747873</v>
+        <v>11.5027193774787</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.58832217522808</v>
+        <v>38.58832217522801</v>
       </c>
       <c r="H25">
-        <v>30.94801899710448</v>
+        <v>30.94801899710441</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.06105718173604</v>
+        <v>21.06105718173606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.27516880918612</v>
+        <v>21.27516880918611</v>
       </c>
       <c r="C2">
         <v>20.57503470848819</v>
       </c>
       <c r="D2">
-        <v>7.277681469399616</v>
+        <v>7.277681469399614</v>
       </c>
       <c r="E2">
-        <v>10.63654375067048</v>
+        <v>10.63654375067049</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.73300092692165</v>
+        <v>35.73300092692169</v>
       </c>
       <c r="H2">
-        <v>28.95920179598659</v>
+        <v>28.95920179598665</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73758416905456</v>
+        <v>19.73758416905461</v>
       </c>
       <c r="C3">
-        <v>19.05121408661619</v>
+        <v>19.0512140866163</v>
       </c>
       <c r="D3">
-        <v>6.744933852837294</v>
+        <v>6.744933852837303</v>
       </c>
       <c r="E3">
-        <v>10.04216243379609</v>
+        <v>10.04216243379611</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.76928859084926</v>
+        <v>33.76928859084921</v>
       </c>
       <c r="H3">
-        <v>27.61115410037045</v>
+        <v>27.61115410037038</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.77469358059487</v>
+        <v>17.77469358059492</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74913959340444</v>
+        <v>18.74913959340453</v>
       </c>
       <c r="C4">
-        <v>18.07416212591396</v>
+        <v>18.07416212591395</v>
       </c>
       <c r="D4">
-        <v>6.402995367356293</v>
+        <v>6.402995367356368</v>
       </c>
       <c r="E4">
-        <v>9.673568968734465</v>
+        <v>9.673568968734495</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.54961782326818</v>
+        <v>32.54961782326821</v>
       </c>
       <c r="H4">
-        <v>26.78337080282962</v>
+        <v>26.78337080282963</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.89590771992847</v>
+        <v>16.89590771992851</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33489075862545</v>
+        <v>18.33489075862536</v>
       </c>
       <c r="C5">
-        <v>17.66526765906988</v>
+        <v>17.66526765906975</v>
       </c>
       <c r="D5">
-        <v>6.259818034179905</v>
+        <v>6.259818034180061</v>
       </c>
       <c r="E5">
-        <v>9.52249799834723</v>
+        <v>9.522497998347221</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.04927016345388</v>
+        <v>32.04927016345386</v>
       </c>
       <c r="H5">
-        <v>26.44612193742716</v>
+        <v>26.44612193742719</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.52810535348672</v>
+        <v>16.52810535348668</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26540538653628</v>
+        <v>18.26540538653622</v>
       </c>
       <c r="C6">
-        <v>17.59671365745504</v>
+        <v>17.59671365745509</v>
       </c>
       <c r="D6">
-        <v>6.235809026834024</v>
+        <v>6.235809026833983</v>
       </c>
       <c r="E6">
-        <v>9.497362742304183</v>
+        <v>9.497362742304157</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>31.9659951619615</v>
       </c>
       <c r="H6">
-        <v>26.3901311404339</v>
+        <v>26.39013114043394</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.46643931659891</v>
+        <v>16.46643931659892</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74359961945138</v>
+        <v>18.74359961945131</v>
       </c>
       <c r="C7">
-        <v>18.06869151359908</v>
+        <v>18.06869151359883</v>
       </c>
       <c r="D7">
-        <v>6.401080087243209</v>
+        <v>6.401080087243264</v>
       </c>
       <c r="E7">
-        <v>9.671534982955823</v>
+        <v>9.671534982955805</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.54288306830039</v>
+        <v>32.54288306830024</v>
       </c>
       <c r="H7">
-        <v>26.77882203951242</v>
+        <v>26.77882203951228</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.89098698526755</v>
+        <v>16.8909869852675</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.75403103624365</v>
+        <v>20.75403103624369</v>
       </c>
       <c r="C8">
-        <v>20.05801369733494</v>
+        <v>20.05801369733498</v>
       </c>
       <c r="D8">
-        <v>7.097001255518609</v>
+        <v>7.097001255518694</v>
       </c>
       <c r="E8">
-        <v>10.43237252257909</v>
+        <v>10.4323725225791</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.05887430838109</v>
+        <v>35.05887430838104</v>
       </c>
       <c r="H8">
-        <v>28.49444533174752</v>
+        <v>28.49444533174742</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.6800805798863</v>
+        <v>18.68008057988629</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35937013519051</v>
+        <v>24.35937013519064</v>
       </c>
       <c r="C9">
-        <v>23.6468852328905</v>
+        <v>23.64688523289056</v>
       </c>
       <c r="D9">
         <v>8.34937474522124</v>
       </c>
       <c r="E9">
-        <v>11.89581653769561</v>
+        <v>11.89581653769564</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>39.88174981843599</v>
       </c>
       <c r="H9">
-        <v>31.85853034962815</v>
+        <v>31.85853034962813</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.90546396351057</v>
+        <v>21.90546396351064</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.82646296724618</v>
+        <v>26.82646296724609</v>
       </c>
       <c r="C10">
-        <v>26.11988185639791</v>
+        <v>26.11988185639783</v>
       </c>
       <c r="D10">
-        <v>9.209541592712995</v>
+        <v>9.209541592713087</v>
       </c>
       <c r="E10">
         <v>12.95808760342317</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.36941777092168</v>
+        <v>43.36941777092159</v>
       </c>
       <c r="H10">
-        <v>34.33867687190188</v>
+        <v>34.33867687190181</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.91573169859899</v>
+        <v>27.9157316985989</v>
       </c>
       <c r="C11">
-        <v>27.216581112245</v>
+        <v>27.21658111224515</v>
       </c>
       <c r="D11">
-        <v>9.590126233499625</v>
+        <v>9.590126233499669</v>
       </c>
       <c r="E11">
-        <v>13.46980899104343</v>
+        <v>13.46980899104338</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.95039236034599</v>
+        <v>44.95039236034598</v>
       </c>
       <c r="H11">
         <v>35.4733945620441</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.1090728124032</v>
+        <v>25.10907281240319</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32410599538842</v>
+        <v>28.32410599538841</v>
       </c>
       <c r="C12">
         <v>27.62854185649179</v>
       </c>
       <c r="D12">
-        <v>9.732934791825752</v>
+        <v>9.732934791825706</v>
       </c>
       <c r="E12">
         <v>13.68026855182039</v>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.54909321663328</v>
+        <v>45.54909321663335</v>
       </c>
       <c r="H12">
-        <v>35.904611906063</v>
+        <v>35.90461190606305</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.47841010918333</v>
+        <v>25.47841010918331</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23632652005956</v>
+        <v>28.23632652005943</v>
       </c>
       <c r="C13">
-        <v>27.53995394730557</v>
+        <v>27.53995394730521</v>
       </c>
       <c r="D13">
-        <v>9.702232596939144</v>
+        <v>9.702232596939128</v>
       </c>
       <c r="E13">
-        <v>13.63499158221662</v>
+        <v>13.63499158221656</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.4201353759786</v>
+        <v>45.42013537597843</v>
       </c>
       <c r="H13">
-        <v>35.81166214174979</v>
+        <v>35.81166214174966</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.39899524126027</v>
+        <v>25.39899524126012</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94940714132508</v>
+        <v>27.94940714132511</v>
       </c>
       <c r="C14">
-        <v>27.25053553701116</v>
+        <v>27.25053553701096</v>
       </c>
       <c r="D14">
-        <v>9.601899982325973</v>
+        <v>9.601899982325893</v>
       </c>
       <c r="E14">
-        <v>13.48714650070053</v>
+        <v>13.48714650070047</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.99964176319803</v>
+        <v>44.99964176319781</v>
       </c>
       <c r="H14">
-        <v>35.50883641287326</v>
+        <v>35.50883641287309</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.13951739738005</v>
+        <v>25.13951739737996</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77314674196702</v>
+        <v>27.77314674196707</v>
       </c>
       <c r="C15">
-        <v>27.07284806617621</v>
+        <v>27.0728480661761</v>
       </c>
       <c r="D15">
-        <v>9.540280198285968</v>
+        <v>9.540280198286061</v>
       </c>
       <c r="E15">
-        <v>13.39643499637863</v>
+        <v>13.39643499637855</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.74210889310161</v>
+        <v>44.74210889310147</v>
       </c>
       <c r="H15">
-        <v>35.32356641076073</v>
+        <v>35.3235664107606</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.98019096075771</v>
+        <v>24.98019096075764</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.75466436930192</v>
+        <v>26.75466436930203</v>
       </c>
       <c r="C16">
-        <v>26.0477004070648</v>
+        <v>26.04770040706468</v>
       </c>
       <c r="D16">
-        <v>9.184472689412432</v>
+        <v>9.184472689412477</v>
       </c>
       <c r="E16">
-        <v>12.92655419816743</v>
+        <v>12.92655419816746</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.26604941695938</v>
+        <v>43.26604941695944</v>
       </c>
       <c r="H16">
-        <v>34.26469705556142</v>
+        <v>34.26469705556145</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.06067759511363</v>
+        <v>24.06067759511367</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12182148445584</v>
+        <v>26.12182148445581</v>
       </c>
       <c r="C17">
-        <v>25.4120420575447</v>
+        <v>25.41204205754494</v>
       </c>
       <c r="D17">
-        <v>8.96360430156286</v>
+        <v>8.963604301562949</v>
       </c>
       <c r="E17">
         <v>12.65016873722972</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.35960947663827</v>
+        <v>42.35960947663828</v>
       </c>
       <c r="H17">
-        <v>33.61713698887629</v>
+        <v>33.61713698887633</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.49027771853991</v>
+        <v>23.49027771853994</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75467432132251</v>
+        <v>25.75467432132247</v>
       </c>
       <c r="C18">
-        <v>25.04371566485037</v>
+        <v>25.04371566485031</v>
       </c>
       <c r="D18">
-        <v>8.835542765698158</v>
+        <v>8.835542765698131</v>
       </c>
       <c r="E18">
-        <v>12.49112561554089</v>
+        <v>12.49112561554088</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.83765985936918</v>
+        <v>41.83765985936908</v>
       </c>
       <c r="H18">
-        <v>33.24524191880468</v>
+        <v>33.24524191880461</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.15968513187297</v>
+        <v>23.15968513187295</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.62980540209035</v>
+        <v>25.62980540209042</v>
       </c>
       <c r="C19">
-        <v>24.91852063916965</v>
+        <v>24.91852063916971</v>
       </c>
       <c r="D19">
-        <v>8.792001126068246</v>
+        <v>8.792001126068232</v>
       </c>
       <c r="E19">
-        <v>12.43725655021075</v>
+        <v>12.43725655021072</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>41.66081459029405</v>
       </c>
       <c r="H19">
-        <v>33.1194066749819</v>
+        <v>33.11940667498187</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.04730308089502</v>
+        <v>23.04730308089504</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,22 +1099,22 @@
         <v>26.18951069737557</v>
       </c>
       <c r="C20">
-        <v>25.47998483628161</v>
+        <v>25.47998483628153</v>
       </c>
       <c r="D20">
-        <v>8.9872205518411</v>
+        <v>8.987220551841132</v>
       </c>
       <c r="E20">
-        <v>12.67959628963593</v>
+        <v>12.67959628963592</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.45615741952823</v>
+        <v>42.45615741952803</v>
       </c>
       <c r="H20">
-        <v>33.68600879112176</v>
+        <v>33.68600879112159</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.55125371773072</v>
+        <v>23.5512537177307</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03378812006622</v>
+        <v>28.03378812006605</v>
       </c>
       <c r="C21">
-        <v>27.33562874838085</v>
+        <v>27.33562874838071</v>
       </c>
       <c r="D21">
-        <v>9.631403635803473</v>
+        <v>9.631403635803336</v>
       </c>
       <c r="E21">
-        <v>13.5306030659113</v>
+        <v>13.53060306591124</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.12314248695991</v>
+        <v>45.12314248695969</v>
       </c>
       <c r="H21">
-        <v>35.59773657981773</v>
+        <v>35.59773657981757</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.21581205257706</v>
+        <v>25.21581205257692</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21557307379968</v>
+        <v>29.21557307379975</v>
       </c>
       <c r="C22">
-        <v>28.52940409672864</v>
+        <v>28.52940409672865</v>
       </c>
       <c r="D22">
-        <v>10.04491422588856</v>
+        <v>10.04491422588862</v>
       </c>
       <c r="E22">
-        <v>14.1413102858463</v>
+        <v>14.14131028584634</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.96638294199709</v>
+        <v>46.96638294199732</v>
       </c>
       <c r="H22">
-        <v>36.85647443080825</v>
+        <v>36.85647443080842</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.28575494508317</v>
+        <v>26.28575494508321</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.58674368582664</v>
+        <v>28.58674368582671</v>
       </c>
       <c r="C23">
-        <v>27.89372224701346</v>
+        <v>27.89372224701351</v>
       </c>
       <c r="D23">
-        <v>9.824814845296544</v>
+        <v>9.824814845296464</v>
       </c>
       <c r="E23">
-        <v>13.81586607058047</v>
+        <v>13.81586607058044</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.95191533380434</v>
+        <v>45.95191533380441</v>
       </c>
       <c r="H23">
-        <v>36.18355996002673</v>
+        <v>36.18355996002676</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.71610740615975</v>
+        <v>25.71610740615977</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.15891878356537</v>
+        <v>26.15891878356544</v>
       </c>
       <c r="C24">
-        <v>25.4492769230454</v>
+        <v>25.44927692304541</v>
       </c>
       <c r="D24">
-        <v>8.976547029853148</v>
+        <v>8.976547029853089</v>
       </c>
       <c r="E24">
-        <v>12.6662925659772</v>
+        <v>12.66629256597722</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.41251072327555</v>
+        <v>42.41251072327567</v>
       </c>
       <c r="H24">
-        <v>33.65487065827447</v>
+        <v>33.65487065827452</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.52369480586113</v>
+        <v>23.52369480586119</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,22 +1289,22 @@
         <v>23.41786224750465</v>
       </c>
       <c r="C25">
-        <v>22.70690971593993</v>
+        <v>22.70690971594006</v>
       </c>
       <c r="D25">
-        <v>8.021789476556149</v>
+        <v>8.021789476556107</v>
       </c>
       <c r="E25">
-        <v>11.5027193774787</v>
+        <v>11.50271937747873</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.58832217522801</v>
+        <v>38.58832217522808</v>
       </c>
       <c r="H25">
-        <v>30.94801899710441</v>
+        <v>30.94801899710448</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.06105718173606</v>
+        <v>21.06105718173604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.27516880918611</v>
+        <v>21.27384374347475</v>
       </c>
       <c r="C2">
-        <v>20.57503470848819</v>
+        <v>20.56456554665636</v>
       </c>
       <c r="D2">
-        <v>7.277681469399614</v>
+        <v>7.27747351989578</v>
       </c>
       <c r="E2">
-        <v>10.63654375067049</v>
+        <v>10.63730064939031</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.73300092692169</v>
+        <v>34.98608910804992</v>
       </c>
       <c r="H2">
-        <v>28.95920179598665</v>
+        <v>35.77221881492864</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>28.91950118088954</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.14494619127188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.14281593984244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73758416905461</v>
+        <v>19.73668389518767</v>
       </c>
       <c r="C3">
-        <v>19.0512140866163</v>
+        <v>19.04173287614401</v>
       </c>
       <c r="D3">
-        <v>6.744933852837303</v>
+        <v>6.744792290615687</v>
       </c>
       <c r="E3">
-        <v>10.04216243379611</v>
+        <v>10.04293929595945</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.76928859084921</v>
+        <v>32.80346832056191</v>
       </c>
       <c r="H3">
-        <v>27.61115410037038</v>
+        <v>33.80684484302238</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>27.57456726793573</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.77469358059492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.77291909394047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74913959340453</v>
+        <v>18.74848608780415</v>
       </c>
       <c r="C4">
-        <v>18.07416212591395</v>
+        <v>18.06528841218335</v>
       </c>
       <c r="D4">
-        <v>6.402995367356368</v>
+        <v>6.402890182739379</v>
       </c>
       <c r="E4">
-        <v>9.673568968734495</v>
+        <v>9.674363141895727</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.54961782326821</v>
+        <v>31.43410242333208</v>
       </c>
       <c r="H4">
-        <v>26.78337080282963</v>
+        <v>32.58619014818626</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26.748775722574</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.89590771992851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.89434476487293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33489075862536</v>
+        <v>18.33433491252945</v>
       </c>
       <c r="C5">
-        <v>17.66526765906975</v>
+        <v>17.65664239628806</v>
       </c>
       <c r="D5">
-        <v>6.259818034180061</v>
+        <v>6.259726737930251</v>
       </c>
       <c r="E5">
-        <v>9.522497998347221</v>
+        <v>9.523300753050037</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.04927016345386</v>
+        <v>30.86882661636067</v>
       </c>
       <c r="H5">
-        <v>26.44612193742719</v>
+        <v>32.08545193200295</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>26.41235870044032</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.52810535348668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.52662739849099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26540538653622</v>
+        <v>18.26486559840794</v>
       </c>
       <c r="C6">
-        <v>17.59671365745509</v>
+        <v>17.58812972077908</v>
       </c>
       <c r="D6">
-        <v>6.235809026833983</v>
+        <v>6.235719984610568</v>
       </c>
       <c r="E6">
-        <v>9.497362742304157</v>
+        <v>9.498167021282073</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.9659951619615</v>
+        <v>30.77453116912156</v>
       </c>
       <c r="H6">
-        <v>26.39013114043394</v>
+        <v>32.00211274529706</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>26.35650724618595</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.46643931659892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.46497541775195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74359961945131</v>
+        <v>18.74294744189202</v>
       </c>
       <c r="C7">
-        <v>18.06869151359883</v>
+        <v>18.05982114616337</v>
       </c>
       <c r="D7">
-        <v>6.401080087243264</v>
+        <v>6.400975093516992</v>
       </c>
       <c r="E7">
-        <v>9.671534982955805</v>
+        <v>9.672329265344285</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.54288306830024</v>
+        <v>31.42650801747933</v>
       </c>
       <c r="H7">
-        <v>26.77882203951228</v>
+        <v>32.57945008220538</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>26.74423809615478</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.8909869852675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.88942518075227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.75403103624369</v>
+        <v>20.75285576728389</v>
       </c>
       <c r="C8">
-        <v>20.05801369733498</v>
+        <v>20.04788543802237</v>
       </c>
       <c r="D8">
-        <v>7.097001255518694</v>
+        <v>7.096817215292847</v>
       </c>
       <c r="E8">
-        <v>10.4323725225791</v>
+        <v>10.43313541746995</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.05887430838104</v>
+        <v>34.23960043850619</v>
       </c>
       <c r="H8">
-        <v>28.49444533174742</v>
+        <v>35.09751246940603</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28.4558019378812</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.68008057988629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.67807477548577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35937013519064</v>
+        <v>24.35702313328765</v>
       </c>
       <c r="C9">
-        <v>23.64688523289056</v>
+        <v>23.63425955009625</v>
       </c>
       <c r="D9">
-        <v>8.34937474522124</v>
+        <v>8.348991687876719</v>
       </c>
       <c r="E9">
-        <v>11.89581653769564</v>
+        <v>11.89654501889558</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.88174981843599</v>
+        <v>39.52814658508441</v>
       </c>
       <c r="H9">
-        <v>31.85853034962813</v>
+        <v>39.92468439263363</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>31.81253689903342</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>21.90546396351064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.90250395897721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.82646296724609</v>
+        <v>26.823106070419</v>
       </c>
       <c r="C10">
-        <v>26.11988185639783</v>
+        <v>26.10533497134077</v>
       </c>
       <c r="D10">
-        <v>9.209541592713087</v>
+        <v>9.208969088478405</v>
       </c>
       <c r="E10">
-        <v>12.95808760342317</v>
+        <v>12.95878606876511</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.36941777092159</v>
+        <v>43.29295548927459</v>
       </c>
       <c r="H10">
-        <v>34.33867687190181</v>
+        <v>43.41558178265345</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.28759440389423</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.12543732556354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.12167556804359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9157316985989</v>
+        <v>27.91186485037777</v>
       </c>
       <c r="C11">
-        <v>27.21658111224515</v>
+        <v>27.20112063408484</v>
       </c>
       <c r="D11">
-        <v>9.590126233499669</v>
+        <v>9.589453076561176</v>
       </c>
       <c r="E11">
-        <v>13.46980899104338</v>
+        <v>13.47122711780391</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.95039236034598</v>
+        <v>44.98728257291562</v>
       </c>
       <c r="H11">
-        <v>35.4733945620441</v>
+        <v>44.99802555264278</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.4200417610415</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.10907281240319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>25.10490933962369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.32410599538841</v>
+        <v>28.3200367433015</v>
       </c>
       <c r="C12">
-        <v>27.62854185649179</v>
+        <v>27.61272738016127</v>
       </c>
       <c r="D12">
-        <v>9.732934791825706</v>
+        <v>9.732220860742377</v>
       </c>
       <c r="E12">
-        <v>13.68026855182039</v>
+        <v>13.68168854082414</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.54909321663335</v>
+        <v>45.62719129840838</v>
       </c>
       <c r="H12">
-        <v>35.90461190606305</v>
+        <v>45.62719129840836</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.85040311404439</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.47841010918331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>25.47408749471062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23632652005943</v>
+        <v>28.23230131092105</v>
       </c>
       <c r="C13">
-        <v>27.53995394730521</v>
+        <v>27.52421611263067</v>
       </c>
       <c r="D13">
-        <v>9.702232596939128</v>
+        <v>9.701527576549349</v>
       </c>
       <c r="E13">
-        <v>13.63499158221656</v>
+        <v>13.63641130759143</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.42013537597843</v>
+        <v>45.48943314863224</v>
       </c>
       <c r="H13">
-        <v>35.81166214174966</v>
+        <v>45.48943314883667</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.7576375880268</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.39899524126012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.39470724527129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94940714132511</v>
+        <v>27.9455238410881</v>
       </c>
       <c r="C14">
-        <v>27.25053553701096</v>
+        <v>27.2350461120437</v>
       </c>
       <c r="D14">
-        <v>9.601899982325893</v>
+        <v>9.601223528064233</v>
       </c>
       <c r="E14">
-        <v>13.48714650070047</v>
+        <v>13.48856484133685</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.99964176319781</v>
+        <v>45.03995592503938</v>
       </c>
       <c r="H14">
-        <v>35.50883641287309</v>
+        <v>45.04732064150176</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.45541313236616</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.13951739737996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.13534098405755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77314674196707</v>
+        <v>27.769349084996</v>
       </c>
       <c r="C15">
-        <v>27.0728480661761</v>
+        <v>27.0575096719509</v>
       </c>
       <c r="D15">
-        <v>9.540280198286061</v>
+        <v>9.539620875378665</v>
       </c>
       <c r="E15">
-        <v>13.39643499637855</v>
+        <v>13.39785210107021</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.74210889310147</v>
+        <v>44.76444958275983</v>
       </c>
       <c r="H15">
-        <v>35.3235664107606</v>
+        <v>44.78954879453132</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.27051182057006</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>24.98019096075764</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.97608192225689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.75466436930203</v>
+        <v>26.75133962028157</v>
       </c>
       <c r="C16">
-        <v>26.04770040706468</v>
+        <v>26.03321224365991</v>
       </c>
       <c r="D16">
-        <v>9.184472689412477</v>
+        <v>9.183906425969154</v>
       </c>
       <c r="E16">
-        <v>12.92655419816746</v>
+        <v>12.92725382752297</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.26604941695944</v>
+        <v>43.18193299363048</v>
       </c>
       <c r="H16">
-        <v>34.26469705556145</v>
+        <v>43.31211729094559</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.21376364557766</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.06067759511367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.05694121097327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.12182148445581</v>
+        <v>26.11877261744292</v>
       </c>
       <c r="C17">
-        <v>25.41204205754494</v>
+        <v>25.3980638518521</v>
       </c>
       <c r="D17">
-        <v>8.963604301562949</v>
+        <v>8.963091056319634</v>
       </c>
       <c r="E17">
-        <v>12.65016873722972</v>
+        <v>12.65087769157701</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.35960947663828</v>
+        <v>42.20700776439709</v>
       </c>
       <c r="H17">
-        <v>33.61713698887633</v>
+        <v>42.40483466786843</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.56751461682418</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>23.49027771853994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>23.48675939629053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75467432132247</v>
+        <v>25.75177952435446</v>
       </c>
       <c r="C18">
-        <v>25.04371566485031</v>
+        <v>25.03002721431494</v>
       </c>
       <c r="D18">
-        <v>8.835542765698131</v>
+        <v>8.835058695347676</v>
       </c>
       <c r="E18">
-        <v>12.49112561554088</v>
+        <v>12.49183930388744</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.83765985936908</v>
+        <v>41.64446324950173</v>
       </c>
       <c r="H18">
-        <v>33.24524191880461</v>
+        <v>41.88240047401603</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.19637802819807</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.15968513187295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>23.15628887533995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.62980540209042</v>
+        <v>25.62696203242399</v>
       </c>
       <c r="C19">
-        <v>24.91852063916971</v>
+        <v>24.90492974520998</v>
       </c>
       <c r="D19">
-        <v>8.792001126068232</v>
+        <v>8.791526722311566</v>
       </c>
       <c r="E19">
-        <v>12.43725655021072</v>
+        <v>12.43797175151981</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.66081459029405</v>
+        <v>41.45366300393969</v>
       </c>
       <c r="H19">
-        <v>33.11940667498187</v>
+        <v>41.70539119746235</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.07080042001009</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.04730308089504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23.0439476217695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.18951069737557</v>
+        <v>26.18643295241485</v>
       </c>
       <c r="C20">
-        <v>25.47998483628153</v>
+        <v>25.46595272809765</v>
       </c>
       <c r="D20">
-        <v>8.987220551841132</v>
+        <v>8.986701803003943</v>
       </c>
       <c r="E20">
-        <v>12.67959628963592</v>
+        <v>12.68030432091035</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.45615741952803</v>
+        <v>42.3109698682358</v>
       </c>
       <c r="H20">
-        <v>33.68600879112159</v>
+        <v>42.50147231441032</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.63624641780978</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>23.5512537177307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.54771254082997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03378812006605</v>
+        <v>28.0298634089167</v>
       </c>
       <c r="C21">
-        <v>27.33562874838071</v>
+        <v>27.32006659951734</v>
       </c>
       <c r="D21">
-        <v>9.631403635803336</v>
+        <v>9.630718868569623</v>
       </c>
       <c r="E21">
-        <v>13.53060306591124</v>
+        <v>13.53202189560874</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.12314248695969</v>
+        <v>45.17201552158548</v>
       </c>
       <c r="H21">
-        <v>35.59773657981757</v>
+        <v>45.17201552161821</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.54413661482199</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.21581205257692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25.21160307117484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21557307379975</v>
+        <v>29.21103926402574</v>
       </c>
       <c r="C22">
-        <v>28.52940409672865</v>
+        <v>28.51279352147935</v>
       </c>
       <c r="D22">
-        <v>10.04491422588862</v>
+        <v>10.04410505824948</v>
       </c>
       <c r="E22">
-        <v>14.14131028584634</v>
+        <v>14.14272839746144</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.96638294199732</v>
+        <v>47.03262537456662</v>
       </c>
       <c r="H22">
-        <v>36.85647443080842</v>
+        <v>47.03262537456791</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.80038628061719</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.28575494508321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.28106742779455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.58674368582671</v>
+        <v>28.58254086853962</v>
       </c>
       <c r="C23">
-        <v>27.89372224701351</v>
+        <v>27.87767662205875</v>
       </c>
       <c r="D23">
-        <v>9.824814845296464</v>
+        <v>9.824073763900042</v>
       </c>
       <c r="E23">
-        <v>13.81586607058044</v>
+        <v>13.81728638466094</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.95191533380441</v>
+        <v>46.0400472612512</v>
       </c>
       <c r="H23">
-        <v>36.18355996002676</v>
+        <v>46.04004726125117</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.12879908790235</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.71610740615977</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.71167983744106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.15891878356544</v>
+        <v>26.1558541083133</v>
       </c>
       <c r="C24">
-        <v>25.44927692304541</v>
+        <v>25.43526919467435</v>
       </c>
       <c r="D24">
-        <v>8.976547029853089</v>
+        <v>8.976030773217094</v>
       </c>
       <c r="E24">
-        <v>12.66629256597722</v>
+        <v>12.66700101647716</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.41251072327567</v>
+        <v>42.26397504361677</v>
       </c>
       <c r="H24">
-        <v>33.65487065827452</v>
+        <v>42.45778506345837</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.60517156452541</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>23.52369480586119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.52016397170691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.41786224750465</v>
+        <v>23.41585328743843</v>
       </c>
       <c r="C25">
-        <v>22.70690971594006</v>
+        <v>22.69496899087054</v>
       </c>
       <c r="D25">
-        <v>8.021789476556107</v>
+        <v>8.021466437529973</v>
       </c>
       <c r="E25">
-        <v>11.50271937747873</v>
+        <v>11.50345623665365</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.58832217522808</v>
+        <v>38.12062450297925</v>
       </c>
       <c r="H25">
-        <v>30.94801899710448</v>
+        <v>38.63007658769585</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.90395332608802</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.06105718173604</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.05836876119253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.27384374347475</v>
+        <v>19.95338078988246</v>
       </c>
       <c r="C2">
-        <v>20.56456554665636</v>
+        <v>13.31742153300388</v>
       </c>
       <c r="D2">
-        <v>7.27747351989578</v>
+        <v>12.15091981296371</v>
       </c>
       <c r="E2">
-        <v>10.63730064939031</v>
+        <v>13.14748527988967</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.98608910804992</v>
+        <v>2.108166352606734</v>
       </c>
       <c r="H2">
-        <v>35.77221881492864</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>28.91950118088954</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.901509616575027</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.27767547890846</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.14281593984244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.88380018180312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.73668389518767</v>
+        <v>18.54592965551459</v>
       </c>
       <c r="C3">
-        <v>19.04173287614401</v>
+        <v>12.25971135484675</v>
       </c>
       <c r="D3">
-        <v>6.744792290615687</v>
+        <v>11.63401056671412</v>
       </c>
       <c r="E3">
-        <v>10.04293929595945</v>
+        <v>12.59980401131641</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.80346832056191</v>
+        <v>2.125729519804474</v>
       </c>
       <c r="H3">
-        <v>33.80684484302238</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>27.57456726793573</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.829343833966885</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.92922508826574</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.77291909394047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>61.17992028494997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74848608780415</v>
+        <v>17.76145863767406</v>
       </c>
       <c r="C4">
-        <v>18.06528841218335</v>
+        <v>11.59640749731256</v>
       </c>
       <c r="D4">
-        <v>6.402890182739379</v>
+        <v>11.32133230060455</v>
       </c>
       <c r="E4">
-        <v>9.674363141895727</v>
+        <v>12.26937890202633</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.43410242333208</v>
+        <v>2.136585169979773</v>
       </c>
       <c r="H4">
-        <v>32.58619014818626</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>26.748775722574</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.789895703393428</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.26362659771514</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.89434476487293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>58.86003598686636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33433491252945</v>
+        <v>17.44066428616905</v>
       </c>
       <c r="C5">
-        <v>17.65664239628806</v>
+        <v>11.3223729902282</v>
       </c>
       <c r="D5">
-        <v>6.259726737930251</v>
+        <v>11.19508567249181</v>
       </c>
       <c r="E5">
-        <v>9.523300753050037</v>
+        <v>12.13617702089973</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.86882661636067</v>
+        <v>2.141036564462425</v>
       </c>
       <c r="H5">
-        <v>32.08545193200295</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>26.41235870044032</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.774971966029248</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.01111340623676</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.52662739849099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>57.90293076337579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26486559840794</v>
+        <v>17.38733279757135</v>
       </c>
       <c r="C6">
-        <v>17.58812972077908</v>
+        <v>11.27663900748364</v>
       </c>
       <c r="D6">
-        <v>6.235719984610568</v>
+        <v>11.17419368136596</v>
       </c>
       <c r="E6">
-        <v>9.498167021282073</v>
+        <v>12.11414651542785</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.77453116912156</v>
+        <v>2.141777640499303</v>
       </c>
       <c r="H6">
-        <v>32.00211274529706</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>26.35650724618595</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.772561502825191</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.96923956040661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.46497541775195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57.7432935833491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74294744189202</v>
+        <v>17.75713666933648</v>
       </c>
       <c r="C7">
-        <v>18.05982114616337</v>
+        <v>11.59272714004239</v>
       </c>
       <c r="D7">
-        <v>6.400975093516992</v>
+        <v>11.31962493602388</v>
       </c>
       <c r="E7">
-        <v>9.672329265344285</v>
+        <v>12.26757663033896</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.42650801747933</v>
+        <v>2.136645079415503</v>
       </c>
       <c r="H7">
-        <v>32.57945008220538</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>26.74423809615478</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.789689862288143</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.26021746104461</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.88942518075227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>58.84717576444933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.75285576728389</v>
+        <v>19.44016230629227</v>
       </c>
       <c r="C8">
-        <v>20.04788543802237</v>
+        <v>12.95542133048423</v>
       </c>
       <c r="D8">
-        <v>7.096817215292847</v>
+        <v>11.97169360993631</v>
       </c>
       <c r="E8">
-        <v>10.43313541746995</v>
+        <v>12.95740303489926</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.23960043850619</v>
+        <v>2.114213412519539</v>
       </c>
       <c r="H8">
-        <v>35.09751246940603</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>28.4558019378812</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.875572785846576</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.81775296790874</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.67807477548577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>63.61594851882696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.35702313328765</v>
+        <v>23.07054673573022</v>
       </c>
       <c r="C9">
-        <v>23.63425955009625</v>
+        <v>15.53445304219072</v>
       </c>
       <c r="D9">
-        <v>8.348991687876719</v>
+        <v>13.29076597057634</v>
       </c>
       <c r="E9">
-        <v>11.89654501889558</v>
+        <v>14.36030221432592</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.52814658508441</v>
+        <v>2.070281105236201</v>
       </c>
       <c r="H9">
-        <v>39.92468439263363</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>31.81253689903342</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.086233581438736</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.06230590232003</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.90250395897721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.63247511024888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.823106070419</v>
+        <v>25.66561207268015</v>
       </c>
       <c r="C10">
-        <v>26.10533497134077</v>
+        <v>17.40572287471392</v>
       </c>
       <c r="D10">
-        <v>9.208969088478405</v>
+        <v>14.29364809552473</v>
       </c>
       <c r="E10">
-        <v>12.95878606876511</v>
+        <v>15.43205896676205</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.29295548927459</v>
+        <v>2.037154659897535</v>
       </c>
       <c r="H10">
-        <v>43.41558178265345</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.28759440389423</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.272914334993944</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.37403842001263</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.12167556804359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.11905848878159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.91186485037777</v>
+        <v>26.84278763835345</v>
       </c>
       <c r="C11">
-        <v>27.20112063408484</v>
+        <v>18.2628344431828</v>
       </c>
       <c r="D11">
-        <v>9.589453076561176</v>
+        <v>14.76107805764345</v>
       </c>
       <c r="E11">
-        <v>13.47122711780391</v>
+        <v>15.93285834486399</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.98728257291562</v>
+        <v>2.021636594784546</v>
       </c>
       <c r="H11">
-        <v>44.99802555264278</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35.4200417610415</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.366575271867159</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.42199258038322</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.10490933962369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.06453133385293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.3200367433015</v>
+        <v>27.2894993811879</v>
       </c>
       <c r="C12">
-        <v>27.61272738016127</v>
+        <v>18.5895068444825</v>
       </c>
       <c r="D12">
-        <v>9.732220860742377</v>
+        <v>14.94019312330105</v>
       </c>
       <c r="E12">
-        <v>13.68168854082414</v>
+        <v>16.12495798348673</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.62719129840838</v>
+        <v>2.015666524749186</v>
       </c>
       <c r="H12">
-        <v>45.62719129840836</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>35.85040311404439</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.403499065195096</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.81965018942415</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.47408749471062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.18210090307586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.23230131092105</v>
+        <v>27.19322301601559</v>
       </c>
       <c r="C13">
-        <v>27.52421611263067</v>
+        <v>18.5190344971089</v>
       </c>
       <c r="D13">
-        <v>9.701527576549349</v>
+        <v>14.90151377098383</v>
       </c>
       <c r="E13">
-        <v>13.63641130759143</v>
+        <v>16.08346559487789</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.48943314863224</v>
+        <v>2.016957004503592</v>
       </c>
       <c r="H13">
-        <v>45.48943314883667</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>35.7576375880268</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.395478314734547</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.73394547087105</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.39470724527129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.9412580876979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.9455238410881</v>
+        <v>26.87951039766565</v>
       </c>
       <c r="C14">
-        <v>27.2350461120437</v>
+        <v>18.28965929710776</v>
       </c>
       <c r="D14">
-        <v>9.601223528064233</v>
+        <v>14.77576818483692</v>
       </c>
       <c r="E14">
-        <v>13.48856484133685</v>
+        <v>15.94860935619237</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.03995592503938</v>
+        <v>2.021147507041462</v>
       </c>
       <c r="H14">
-        <v>45.04732064150176</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35.45541313236616</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.369582485891934</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.45468260661148</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.13534098405755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.15641046836964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.769349084996</v>
+        <v>26.6875240990727</v>
       </c>
       <c r="C15">
-        <v>27.0575096719509</v>
+        <v>18.14947784813192</v>
       </c>
       <c r="D15">
-        <v>9.539620875378665</v>
+        <v>14.69903793787257</v>
       </c>
       <c r="E15">
-        <v>13.39785210107021</v>
+        <v>15.86634588915885</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.76444958275983</v>
+        <v>2.023701107218409</v>
       </c>
       <c r="H15">
-        <v>44.78954879453132</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>35.27051182057006</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.353917064032788</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.28377920984141</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.97608192225689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.67605625938656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.75133962028157</v>
+        <v>25.58872619879633</v>
       </c>
       <c r="C16">
-        <v>26.03321224365991</v>
+        <v>17.34992631096234</v>
       </c>
       <c r="D16">
-        <v>9.183906425969154</v>
+        <v>14.26336462699911</v>
       </c>
       <c r="E16">
-        <v>12.92725382752297</v>
+        <v>15.3996400533302</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.18193299363048</v>
+        <v>2.038157446538057</v>
       </c>
       <c r="H16">
-        <v>43.31211729094559</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.21376364557766</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.266985128387045</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.3055854109306</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.05694121097327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.92668960278596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.11877261744292</v>
+        <v>24.91468545377612</v>
       </c>
       <c r="C17">
-        <v>25.3980638518521</v>
+        <v>16.86171862837735</v>
       </c>
       <c r="D17">
-        <v>8.963091056319634</v>
+        <v>13.99926592862975</v>
       </c>
       <c r="E17">
-        <v>12.65087769157701</v>
+        <v>15.11705976391043</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.20700776439709</v>
+        <v>2.046892506269527</v>
       </c>
       <c r="H17">
-        <v>42.40483466786843</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.56751461682418</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.216019990438125</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.70540613406266</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.48675939629053</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.24050628894894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75177952435446</v>
+        <v>24.52657616463808</v>
       </c>
       <c r="C18">
-        <v>25.03002721431494</v>
+        <v>16.58137304395395</v>
       </c>
       <c r="D18">
-        <v>8.835058695347676</v>
+        <v>13.84838019565932</v>
       </c>
       <c r="E18">
-        <v>12.49183930388744</v>
+        <v>14.95573153751289</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.64446324950173</v>
+        <v>2.051876568739829</v>
       </c>
       <c r="H18">
-        <v>41.88240047401603</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.19637802819807</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.187514237730534</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.35975525012966</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.15628887533995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.26993640948447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.62696203242399</v>
+        <v>24.39506010146198</v>
       </c>
       <c r="C19">
-        <v>24.90492974520998</v>
+        <v>16.48649876209677</v>
       </c>
       <c r="D19">
-        <v>8.791526722311566</v>
+        <v>13.79745514175214</v>
       </c>
       <c r="E19">
-        <v>12.43797175151981</v>
+        <v>14.90130166020513</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.45366300393969</v>
+        <v>2.053557969245659</v>
       </c>
       <c r="H19">
-        <v>41.70539119746235</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.07080042001009</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.177996189531354</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.24261223830924</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.0439476217695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.94111859878508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.18643295241485</v>
+        <v>24.98647256809783</v>
       </c>
       <c r="C20">
-        <v>25.46595272809765</v>
+        <v>16.91363369678444</v>
       </c>
       <c r="D20">
-        <v>8.986701803003943</v>
+        <v>14.0272713986636</v>
       </c>
       <c r="E20">
-        <v>12.68030432091035</v>
+        <v>15.14701286880393</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.3109698682358</v>
+        <v>2.045966983625936</v>
       </c>
       <c r="H20">
-        <v>42.50147231441032</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.63624641780978</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.221360403475861</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.76933353987438</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.54771254082997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.42005959494831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.0298634089167</v>
+        <v>26.97161646235319</v>
       </c>
       <c r="C21">
-        <v>27.32006659951734</v>
+        <v>18.3569634007479</v>
       </c>
       <c r="D21">
-        <v>9.630718868569623</v>
+        <v>14.81264058920826</v>
       </c>
       <c r="E21">
-        <v>13.53202189560874</v>
+        <v>15.98814779273482</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.17201552158548</v>
+        <v>2.019919470117469</v>
       </c>
       <c r="H21">
-        <v>45.17201552161821</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>35.54413661482199</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.377147326925201</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.53667400015078</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.21160307117484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.38685182713998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.21103926402574</v>
+        <v>28.27549712293281</v>
       </c>
       <c r="C22">
-        <v>28.51279352147935</v>
+        <v>19.31339772469452</v>
       </c>
       <c r="D22">
-        <v>10.04410505824948</v>
+        <v>15.33859548243722</v>
       </c>
       <c r="E22">
-        <v>14.14272839746144</v>
+        <v>16.55261971615874</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.03262537456662</v>
+        <v>2.002329856032051</v>
       </c>
       <c r="H22">
-        <v>47.03262537456791</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>36.80038628061719</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.487588754265321</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.69743934360083</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.28106742779455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.64777124081706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.58254086853962</v>
+        <v>27.57841319828162</v>
       </c>
       <c r="C23">
-        <v>27.87767662205875</v>
+        <v>18.80120932873936</v>
       </c>
       <c r="D23">
-        <v>9.824073763900042</v>
+        <v>15.05650895221847</v>
       </c>
       <c r="E23">
-        <v>13.81728638466094</v>
+        <v>16.24976287298001</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.0400472612512</v>
+        <v>2.011781407406111</v>
       </c>
       <c r="H23">
-        <v>46.04004726125117</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.12879908790235</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.427773460606308</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.0768439526482</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.71167983744106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.90476448249304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.1558541083133</v>
+        <v>24.95401956615905</v>
       </c>
       <c r="C24">
-        <v>25.43526919467435</v>
+        <v>16.89016195170703</v>
       </c>
       <c r="D24">
-        <v>8.976030773217094</v>
+        <v>14.01460720739673</v>
       </c>
       <c r="E24">
-        <v>12.66700101647716</v>
+        <v>15.13346758627424</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.26397504361677</v>
+        <v>2.04638552818165</v>
       </c>
       <c r="H24">
-        <v>42.45778506345837</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>33.60517156452541</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.218943541472824</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.74043392441343</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.52016397170691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.33888736969503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.41585328743843</v>
+        <v>22.10443925251797</v>
       </c>
       <c r="C25">
-        <v>22.69496899087054</v>
+        <v>14.8438740115773</v>
       </c>
       <c r="D25">
-        <v>8.021466437529973</v>
+        <v>12.92893839684601</v>
       </c>
       <c r="E25">
-        <v>11.50345623665365</v>
+        <v>13.9746369702013</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.12062450297925</v>
+        <v>2.082240488941521</v>
       </c>
       <c r="H25">
-        <v>38.63007658769585</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>30.90395332608802</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.02415437721661</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.20053187122776</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.05836876119253</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.22385736448251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.95338078988246</v>
+        <v>22.32016733930116</v>
       </c>
       <c r="C2">
-        <v>13.31742153300388</v>
+        <v>13.16728168460478</v>
       </c>
       <c r="D2">
-        <v>12.15091981296371</v>
+        <v>7.189070205012525</v>
       </c>
       <c r="E2">
-        <v>13.14748527988967</v>
+        <v>6.344394663480532</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.108166352606734</v>
+        <v>2.06843243919149</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.93136746227211</v>
       </c>
       <c r="J2">
-        <v>5.901509616575027</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.27767547890846</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.409843321182436</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.58496094565216</v>
       </c>
       <c r="O2">
-        <v>64.88380018180312</v>
+        <v>17.81562975890342</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.54592965551459</v>
+        <v>20.79622858816427</v>
       </c>
       <c r="C3">
-        <v>12.25971135484675</v>
+        <v>12.42635528250749</v>
       </c>
       <c r="D3">
-        <v>11.63401056671412</v>
+        <v>6.687650215736054</v>
       </c>
       <c r="E3">
-        <v>12.59980401131641</v>
+        <v>6.378653482669729</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.125729519804474</v>
+        <v>2.075019031810457</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.88692275057369</v>
       </c>
       <c r="J3">
-        <v>5.829343833966885</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.92922508826574</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.144242351520094</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.77306284961821</v>
       </c>
       <c r="O3">
-        <v>61.17992028494997</v>
+        <v>17.36645402237998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.76145863767406</v>
+        <v>19.80605584299063</v>
       </c>
       <c r="C4">
-        <v>11.59640749731256</v>
+        <v>11.94889595500406</v>
       </c>
       <c r="D4">
-        <v>11.32133230060455</v>
+        <v>6.362948947723096</v>
       </c>
       <c r="E4">
-        <v>12.26937890202633</v>
+        <v>6.403387804948619</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.136585169979773</v>
+        <v>2.079183484752349</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.87631926368342</v>
       </c>
       <c r="J4">
-        <v>5.789895703393428</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.26362659771514</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.980374994681244</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.89172064834913</v>
       </c>
       <c r="O4">
-        <v>58.86003598686636</v>
+        <v>17.10432281667077</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.44066428616905</v>
+        <v>19.38876092563165</v>
       </c>
       <c r="C5">
-        <v>11.3223729902282</v>
+        <v>11.74872224823052</v>
       </c>
       <c r="D5">
-        <v>11.19508567249181</v>
+        <v>6.227145104685321</v>
       </c>
       <c r="E5">
-        <v>12.13617702089973</v>
+        <v>6.414368023366131</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.141036564462425</v>
+        <v>2.080911691965504</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.87600509056041</v>
       </c>
       <c r="J5">
-        <v>5.774971966029248</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.01111340623676</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.913491689686012</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.94088005910554</v>
       </c>
       <c r="O5">
-        <v>57.90293076337579</v>
+        <v>17.00097971298003</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.38733279757135</v>
+        <v>19.31863371959576</v>
       </c>
       <c r="C6">
-        <v>11.27663900748364</v>
+        <v>11.71514718235113</v>
       </c>
       <c r="D6">
-        <v>11.17419368136596</v>
+        <v>6.207653134793756</v>
       </c>
       <c r="E6">
-        <v>12.11414651542785</v>
+        <v>6.416244845970984</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.141777640499303</v>
+        <v>2.081200567357836</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.87618934225619</v>
       </c>
       <c r="J6">
-        <v>5.772561502825191</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.96923956040661</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.902382206032776</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.94909188916205</v>
       </c>
       <c r="O6">
-        <v>57.7432935833491</v>
+        <v>16.98403069672538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.75713666933648</v>
+        <v>19.800484023306</v>
       </c>
       <c r="C7">
-        <v>11.59272714004239</v>
+        <v>11.94621894319929</v>
       </c>
       <c r="D7">
-        <v>11.31962493602388</v>
+        <v>6.361124198364757</v>
       </c>
       <c r="E7">
-        <v>12.26757663033896</v>
+        <v>6.403532278847618</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.136645079415503</v>
+        <v>2.079206664616029</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.87629905501721</v>
       </c>
       <c r="J7">
-        <v>5.789689862288143</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.26021746104461</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.979473284961371</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.89238035462755</v>
       </c>
       <c r="O7">
-        <v>58.84717576444933</v>
+        <v>17.1029149683168</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.44016230629227</v>
+        <v>21.80596004486261</v>
       </c>
       <c r="C8">
-        <v>12.95542133048423</v>
+        <v>12.91651515148164</v>
       </c>
       <c r="D8">
-        <v>11.97169360993631</v>
+        <v>7.019648749982873</v>
       </c>
       <c r="E8">
-        <v>12.95740303489926</v>
+        <v>6.35542127050863</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.114213412519539</v>
+        <v>2.070679105469635</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.91246725904694</v>
       </c>
       <c r="J8">
-        <v>5.875572785846576</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.81775296790874</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.318480087893853</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.64916814577434</v>
       </c>
       <c r="O8">
-        <v>63.61594851882696</v>
+        <v>17.65794563578453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.07054673573022</v>
+        <v>25.31094366618157</v>
       </c>
       <c r="C9">
-        <v>15.53445304219072</v>
+        <v>14.63892799684562</v>
       </c>
       <c r="D9">
-        <v>13.29076597057634</v>
+        <v>8.17935680876802</v>
       </c>
       <c r="E9">
-        <v>14.36030221432592</v>
+        <v>6.291804946083877</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.070281105236201</v>
+        <v>2.054866533024098</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.12400892484841</v>
       </c>
       <c r="J9">
-        <v>6.086233581438736</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20.06230590232003</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.973439541611252</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.19687826564563</v>
       </c>
       <c r="O9">
-        <v>72.63247511024888</v>
+        <v>18.85262144397989</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.66561207268015</v>
+        <v>27.63166738136806</v>
       </c>
       <c r="C10">
-        <v>17.40572287471392</v>
+        <v>15.79356759755834</v>
       </c>
       <c r="D10">
-        <v>14.29364809552473</v>
+        <v>8.953822047392304</v>
       </c>
       <c r="E10">
-        <v>15.43205896676205</v>
+        <v>6.265781141113208</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.037154659897535</v>
+        <v>2.04373770827548</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.37598336436011</v>
       </c>
       <c r="J10">
-        <v>6.272914334993944</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.37403842001263</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.444543953730891</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.87902795909427</v>
       </c>
       <c r="O10">
-        <v>79.11905848878159</v>
+        <v>19.79215628695595</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.84278763835345</v>
+        <v>28.63364476868257</v>
       </c>
       <c r="C11">
-        <v>18.2628344431828</v>
+        <v>16.29489215079148</v>
       </c>
       <c r="D11">
-        <v>14.76107805764345</v>
+        <v>9.2899221487808</v>
       </c>
       <c r="E11">
-        <v>15.93285834486399</v>
+        <v>6.258895111884826</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.021636594784546</v>
+        <v>2.038765152981909</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.51376133987918</v>
       </c>
       <c r="J11">
-        <v>6.366575271867159</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>23.42199258038322</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.656007849602631</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.73746018938389</v>
       </c>
       <c r="O11">
-        <v>82.06453133385293</v>
+        <v>20.23243085575758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.2894993811879</v>
+        <v>29.00546569607626</v>
       </c>
       <c r="C12">
-        <v>18.5895068444825</v>
+        <v>16.48131413089006</v>
       </c>
       <c r="D12">
-        <v>14.94019312330105</v>
+        <v>9.414917472862742</v>
       </c>
       <c r="E12">
-        <v>16.12495798348673</v>
+        <v>6.257039219095427</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.015666524749186</v>
+        <v>2.036893692716244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.5694325072073</v>
       </c>
       <c r="J12">
-        <v>6.403499065195096</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.81965018942415</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.735633104040405</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.68428055730014</v>
       </c>
       <c r="O12">
-        <v>83.18210090307586</v>
+        <v>20.40096607158016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.19322301601559</v>
+        <v>28.92572370898061</v>
       </c>
       <c r="C13">
-        <v>18.5190344971089</v>
+        <v>16.44131640562976</v>
       </c>
       <c r="D13">
-        <v>14.90151377098383</v>
+        <v>9.388097965830408</v>
       </c>
       <c r="E13">
-        <v>16.08346559487789</v>
+        <v>6.257404839615181</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.016957004503592</v>
+        <v>2.037296255583187</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.55728456478598</v>
       </c>
       <c r="J13">
-        <v>6.395478314734547</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.73394547087105</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.718505032435791</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.6957147371702</v>
       </c>
       <c r="O13">
-        <v>82.9412580876979</v>
+        <v>20.36458884142446</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.87951039766565</v>
+        <v>28.66438642734437</v>
       </c>
       <c r="C14">
-        <v>18.28965929710776</v>
+        <v>16.31029755141414</v>
       </c>
       <c r="D14">
-        <v>14.77576818483692</v>
+        <v>9.300250943798035</v>
       </c>
       <c r="E14">
-        <v>15.94860935619237</v>
+        <v>6.258727128957578</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.021147507041462</v>
+        <v>2.038610964022884</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.51827040454214</v>
       </c>
       <c r="J14">
-        <v>6.369582485891934</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>23.45468260661148</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.662567924271888</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>10.73307649851469</v>
       </c>
       <c r="O14">
-        <v>82.15641046836964</v>
+        <v>20.24626019119624</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.6875240990727</v>
+        <v>28.50332292748337</v>
       </c>
       <c r="C15">
-        <v>18.14947784813192</v>
+        <v>16.22960033678709</v>
       </c>
       <c r="D15">
-        <v>14.69903793787257</v>
+        <v>9.246146980528307</v>
       </c>
       <c r="E15">
-        <v>15.86634588915885</v>
+        <v>6.259636164295455</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.023701107218409</v>
+        <v>2.039417719936065</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.49483346968186</v>
       </c>
       <c r="J15">
-        <v>6.353917064032788</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>23.28377920984141</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.628244937584647</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10.75601738113153</v>
       </c>
       <c r="O15">
-        <v>81.67605625938656</v>
+        <v>20.17401563837104</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.58872619879633</v>
+        <v>27.56511473711931</v>
       </c>
       <c r="C16">
-        <v>17.34992631096234</v>
+        <v>15.7603250079183</v>
       </c>
       <c r="D16">
-        <v>14.26336462699911</v>
+        <v>8.931535363222737</v>
       </c>
       <c r="E16">
-        <v>15.3996400533302</v>
+        <v>6.266334157498238</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.038157446538057</v>
+        <v>2.044064370120584</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.36745970045483</v>
       </c>
       <c r="J16">
-        <v>6.266985128387045</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>22.3055854109306</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.430663191209733</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>10.88834006051879</v>
       </c>
       <c r="O16">
-        <v>78.92668960278596</v>
+        <v>19.7636387915089</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.91468545377612</v>
+        <v>26.97587621340989</v>
       </c>
       <c r="C17">
-        <v>16.86171862837735</v>
+        <v>15.46632358574135</v>
       </c>
       <c r="D17">
-        <v>13.99926592862975</v>
+        <v>8.734416280749004</v>
       </c>
       <c r="E17">
-        <v>15.11705976391043</v>
+        <v>6.271739205884861</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.046892506269527</v>
+        <v>2.046937027796666</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.29537217100746</v>
       </c>
       <c r="J17">
-        <v>6.216019990438125</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.70540613406266</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.308691263713119</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10.97028560255603</v>
       </c>
       <c r="O17">
-        <v>77.24050628894894</v>
+        <v>19.51515208695519</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.52657616463808</v>
+        <v>26.63189678882865</v>
       </c>
       <c r="C18">
-        <v>16.58137304395395</v>
+        <v>15.29496759572608</v>
       </c>
       <c r="D18">
-        <v>13.84838019565932</v>
+        <v>8.619509729526918</v>
       </c>
       <c r="E18">
-        <v>14.95573153751289</v>
+        <v>6.275311718900682</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.051876568739829</v>
+        <v>2.048597866493358</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.25607906541175</v>
       </c>
       <c r="J18">
-        <v>6.187514237730534</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.35975525012966</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.238270456281537</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.01770340008567</v>
       </c>
       <c r="O18">
-        <v>76.26993640948447</v>
+        <v>19.37344264681318</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.39506010146198</v>
+        <v>26.51455777754593</v>
       </c>
       <c r="C19">
-        <v>16.48649876209677</v>
+        <v>15.23656176555105</v>
       </c>
       <c r="D19">
-        <v>13.79745514175214</v>
+        <v>8.580340218538804</v>
       </c>
       <c r="E19">
-        <v>14.90130166020513</v>
+        <v>6.276599767575183</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.053557969245659</v>
+        <v>2.049161709412985</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.24314250503489</v>
       </c>
       <c r="J19">
-        <v>6.177996189531354</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.24261223830924</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.214382997700229</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.03380738467382</v>
       </c>
       <c r="O19">
-        <v>75.94111859878508</v>
+        <v>19.32567207988378</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.98647256809783</v>
+        <v>27.03912501704815</v>
       </c>
       <c r="C20">
-        <v>16.91363369678444</v>
+        <v>15.49785371136728</v>
       </c>
       <c r="D20">
-        <v>14.0272713986636</v>
+        <v>8.755557806974574</v>
       </c>
       <c r="E20">
-        <v>15.14701286880393</v>
+        <v>6.271115559559831</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.045966983625936</v>
+        <v>2.046630352160146</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.30282021096721</v>
       </c>
       <c r="J20">
-        <v>6.221360403475861</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.76933353987438</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.321703231851513</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.96153292207941</v>
       </c>
       <c r="O20">
-        <v>77.42005959494831</v>
+        <v>19.5414786462558</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.97161646235319</v>
+        <v>28.74135296065296</v>
       </c>
       <c r="C21">
-        <v>18.3569634007479</v>
+        <v>16.34887351939733</v>
       </c>
       <c r="D21">
-        <v>14.81264058920826</v>
+        <v>9.326115150001824</v>
       </c>
       <c r="E21">
-        <v>15.98814779273482</v>
+        <v>6.258318016343361</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.019919470117469</v>
+        <v>2.038224500894755</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.52963357938123</v>
       </c>
       <c r="J21">
-        <v>6.377147326925201</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>23.53667400015078</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.679010552172691</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.72209083853806</v>
       </c>
       <c r="O21">
-        <v>82.38685182713998</v>
+        <v>20.28096722579461</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.27549712293281</v>
+        <v>29.80958327072565</v>
       </c>
       <c r="C22">
-        <v>19.31339772469452</v>
+        <v>16.88515493419033</v>
       </c>
       <c r="D22">
-        <v>15.33859548243722</v>
+        <v>9.685753054926369</v>
       </c>
       <c r="E22">
-        <v>16.55261971615874</v>
+        <v>6.254355072644866</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.002329856032051</v>
+        <v>2.032797309586116</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.69832923507351</v>
       </c>
       <c r="J22">
-        <v>6.487588754265321</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>24.69743934360083</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.909887103244683</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.56810075897997</v>
       </c>
       <c r="O22">
-        <v>85.64777124081706</v>
+        <v>20.77482466834901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57841319828162</v>
+        <v>29.24345829561706</v>
       </c>
       <c r="C23">
-        <v>18.80120932873936</v>
+        <v>16.60074307731857</v>
       </c>
       <c r="D23">
-        <v>15.05650895221847</v>
+        <v>9.495002246471755</v>
       </c>
       <c r="E23">
-        <v>16.24976287298001</v>
+        <v>6.256053983975162</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.011781407406111</v>
+        <v>2.035688311841956</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.60636735114898</v>
       </c>
       <c r="J23">
-        <v>6.427773460606308</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>24.0768439526482</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.786917342103882</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.65006096263028</v>
       </c>
       <c r="O23">
-        <v>83.90476448249304</v>
+        <v>20.51028657034734</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.95401956615905</v>
+        <v>27.01054649594147</v>
       </c>
       <c r="C24">
-        <v>16.89016195170703</v>
+        <v>15.48360620257233</v>
       </c>
       <c r="D24">
-        <v>14.01460720739673</v>
+        <v>8.746004648740097</v>
       </c>
       <c r="E24">
-        <v>15.13346758627424</v>
+        <v>6.271396064421933</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.04638552818165</v>
+        <v>2.046768971113623</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.2994462651171</v>
       </c>
       <c r="J24">
-        <v>6.218943541472824</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.74043392441343</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.315821444416837</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.96548905467135</v>
       </c>
       <c r="O24">
-        <v>77.33888736969503</v>
+        <v>19.52957282716526</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.10443925251797</v>
+        <v>24.40790210394308</v>
       </c>
       <c r="C25">
-        <v>14.8438740115773</v>
+        <v>14.19242446560428</v>
       </c>
       <c r="D25">
-        <v>12.92893839684601</v>
+        <v>7.879449099394721</v>
       </c>
       <c r="E25">
-        <v>13.9746369702013</v>
+        <v>6.30552570391276</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.082240488941521</v>
+        <v>2.059053380277511</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.05058551210329</v>
       </c>
       <c r="J25">
-        <v>6.02415437721661</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.20053187122776</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.797769436219055</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.3166584892874</v>
       </c>
       <c r="O25">
-        <v>70.22385736448251</v>
+        <v>18.51836131308542</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.32016733930116</v>
+        <v>16.82361958449795</v>
       </c>
       <c r="C2">
-        <v>13.16728168460478</v>
+        <v>8.828868593120227</v>
       </c>
       <c r="D2">
-        <v>7.189070205012525</v>
+        <v>5.987990474260265</v>
       </c>
       <c r="E2">
-        <v>6.344394663480532</v>
+        <v>10.70594448902044</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.06843243919149</v>
+        <v>3.640681020734384</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.93136746227211</v>
+        <v>23.12352289791189</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.409843321182436</v>
+        <v>9.993645275870515</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.58496094565216</v>
+        <v>17.45162601311849</v>
       </c>
       <c r="O2">
-        <v>17.81562975890342</v>
+        <v>24.14055000092353</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.79622858816427</v>
+        <v>16.31107159179798</v>
       </c>
       <c r="C3">
-        <v>12.42635528250749</v>
+        <v>8.473805340625189</v>
       </c>
       <c r="D3">
-        <v>6.687650215736054</v>
+        <v>5.87005884353578</v>
       </c>
       <c r="E3">
-        <v>6.378653482669729</v>
+        <v>10.7388079170951</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.075019031810457</v>
+        <v>3.643188961538602</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.88692275057369</v>
+        <v>23.2069061386077</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.144242351520094</v>
+        <v>9.968754770430349</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.77306284961821</v>
+        <v>17.51015648793963</v>
       </c>
       <c r="O3">
-        <v>17.36645402237998</v>
+        <v>24.15529775215094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.80605584299063</v>
+        <v>15.99082084125332</v>
       </c>
       <c r="C4">
-        <v>11.94889595500406</v>
+        <v>8.246311597960847</v>
       </c>
       <c r="D4">
-        <v>6.362948947723096</v>
+        <v>5.798268398553287</v>
       </c>
       <c r="E4">
-        <v>6.403387804948619</v>
+        <v>10.76055881878891</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.079183484752349</v>
+        <v>3.644810800605504</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.87631926368342</v>
+        <v>23.26370468744573</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.980374994681244</v>
+        <v>9.955316409101874</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.89172064834913</v>
+        <v>17.54794695543648</v>
       </c>
       <c r="O4">
-        <v>17.10432281667077</v>
+        <v>24.17111326079354</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.38876092563165</v>
+        <v>15.85912689255262</v>
       </c>
       <c r="C5">
-        <v>11.74872224823052</v>
+        <v>8.151300566514884</v>
       </c>
       <c r="D5">
-        <v>6.227145104685321</v>
+        <v>5.769214006851414</v>
       </c>
       <c r="E5">
-        <v>6.414368023366131</v>
+        <v>10.76981804472281</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.080911691965504</v>
+        <v>3.64549238931397</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.87600509056041</v>
+        <v>23.28825416204098</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.913491689686012</v>
+        <v>9.950307829929187</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.94088005910554</v>
+        <v>17.56381391452165</v>
       </c>
       <c r="O5">
-        <v>17.00097971298003</v>
+        <v>24.17925441160765</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.31863371959576</v>
+        <v>15.83719366054018</v>
       </c>
       <c r="C6">
-        <v>11.71514718235113</v>
+        <v>8.135387341894889</v>
       </c>
       <c r="D6">
-        <v>6.207653134793756</v>
+        <v>5.7644029923355</v>
       </c>
       <c r="E6">
-        <v>6.416244845970984</v>
+        <v>10.77137942603158</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.081200567357836</v>
+        <v>3.645606817395457</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.87618934225619</v>
+        <v>23.29241521578686</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.902382206032776</v>
+        <v>9.949504509025212</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.94909188916205</v>
+        <v>17.56647685455767</v>
       </c>
       <c r="O6">
-        <v>16.98403069672538</v>
+        <v>24.18070856131215</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.800484023306</v>
+        <v>15.9890493041389</v>
       </c>
       <c r="C7">
-        <v>11.94621894319929</v>
+        <v>8.24503946808322</v>
       </c>
       <c r="D7">
-        <v>6.361124198364757</v>
+        <v>5.797875688299428</v>
       </c>
       <c r="E7">
-        <v>6.403532278847618</v>
+        <v>10.76068209020327</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.079206664616029</v>
+        <v>3.644819908940905</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.87629905501721</v>
+        <v>23.26403009355483</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.979473284961371</v>
+        <v>9.955246963334117</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.89238035462755</v>
+        <v>17.54815905018794</v>
       </c>
       <c r="O7">
-        <v>17.1029149683168</v>
+        <v>24.17121619306687</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.80596004486261</v>
+        <v>16.64816221453172</v>
       </c>
       <c r="C8">
-        <v>12.91651515148164</v>
+        <v>8.708455288103185</v>
       </c>
       <c r="D8">
-        <v>7.019648749982873</v>
+        <v>5.947225753522576</v>
       </c>
       <c r="E8">
-        <v>6.35542127050863</v>
+        <v>10.71694946617649</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.070679105469635</v>
+        <v>3.641528790481242</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.91246725904694</v>
+        <v>23.1511081263668</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.318480087893853</v>
+        <v>9.984682630057714</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.64916814577434</v>
+        <v>17.47142355533343</v>
       </c>
       <c r="O8">
-        <v>17.65794563578453</v>
+        <v>24.14422996410831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.31094366618157</v>
+        <v>17.88843321288948</v>
       </c>
       <c r="C9">
-        <v>14.63892799684562</v>
+        <v>9.539012183215007</v>
       </c>
       <c r="D9">
-        <v>8.17935680876802</v>
+        <v>6.243077488957371</v>
       </c>
       <c r="E9">
-        <v>6.291804946083877</v>
+        <v>10.64366315197704</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.054866533024098</v>
+        <v>3.635722064912869</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.12400892484841</v>
+        <v>22.97431899392965</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.973439541611252</v>
+        <v>10.05685488903495</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.19687826564563</v>
+        <v>17.33558936605135</v>
       </c>
       <c r="O9">
-        <v>18.85262144397989</v>
+        <v>24.14507463999816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.63166738136806</v>
+        <v>18.75782408923492</v>
       </c>
       <c r="C10">
-        <v>15.79356759755834</v>
+        <v>10.09825149268677</v>
       </c>
       <c r="D10">
-        <v>8.953822047392304</v>
+        <v>6.459723977404036</v>
       </c>
       <c r="E10">
-        <v>6.265781141113208</v>
+        <v>10.59741705790005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.04373770827548</v>
+        <v>3.631846026189658</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.37598336436011</v>
+        <v>22.87193272868551</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.444543953730891</v>
+        <v>10.11841391769996</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.87902795909427</v>
+        <v>17.24464227427628</v>
       </c>
       <c r="O10">
-        <v>19.79215628695595</v>
+        <v>24.17857850719588</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.63364476868257</v>
+        <v>19.14244128208345</v>
       </c>
       <c r="C11">
-        <v>16.29489215079148</v>
+        <v>10.34106178716267</v>
       </c>
       <c r="D11">
-        <v>9.2899221487808</v>
+        <v>6.557620162825679</v>
       </c>
       <c r="E11">
-        <v>6.258895111884826</v>
+        <v>10.57802687985333</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.038765152981909</v>
+        <v>3.63016650879909</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.51376133987918</v>
+        <v>22.83138352941395</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.656007849602631</v>
+        <v>10.14820523769184</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.73746018938389</v>
+        <v>17.20517371085961</v>
       </c>
       <c r="O11">
-        <v>20.23243085575758</v>
+        <v>24.20096089040041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.00546569607626</v>
+        <v>19.28639148340697</v>
       </c>
       <c r="C12">
-        <v>16.48131413089006</v>
+        <v>10.43130529723378</v>
       </c>
       <c r="D12">
-        <v>9.414917472862742</v>
+        <v>6.594556730622096</v>
       </c>
       <c r="E12">
-        <v>6.257039219095427</v>
+        <v>10.57092114708429</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.036893692716244</v>
+        <v>3.629542486411436</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.5694325072073</v>
+        <v>22.81689975143852</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.735633104040405</v>
+        <v>10.15973728333318</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.68428055730014</v>
+        <v>17.19050057486697</v>
       </c>
       <c r="O12">
-        <v>20.40096607158016</v>
+        <v>24.21046147977304</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.92572370898061</v>
+        <v>19.25546662249248</v>
       </c>
       <c r="C13">
-        <v>16.44131640562976</v>
+        <v>10.41194602879372</v>
       </c>
       <c r="D13">
-        <v>9.388097965830408</v>
+        <v>6.586608380683664</v>
       </c>
       <c r="E13">
-        <v>6.257404839615181</v>
+        <v>10.57244095706799</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.037296255583187</v>
+        <v>3.629676349236659</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.55728456478598</v>
+        <v>22.81998026725575</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.718505032435791</v>
+        <v>10.15724260522378</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.6957147371702</v>
+        <v>17.19364858218795</v>
       </c>
       <c r="O13">
-        <v>20.36458884142446</v>
+        <v>24.20836982150674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.66438642734437</v>
+        <v>19.15431885099341</v>
       </c>
       <c r="C14">
-        <v>16.31029755141414</v>
+        <v>10.34852050509734</v>
       </c>
       <c r="D14">
-        <v>9.300250943798035</v>
+        <v>6.560661875685374</v>
       </c>
       <c r="E14">
-        <v>6.258727128957578</v>
+        <v>10.5774375388994</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.038610964022884</v>
+        <v>3.630114930478206</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.51827040454214</v>
+        <v>22.83017445151174</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.662567924271888</v>
+        <v>10.1491489989402</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.73307649851469</v>
+        <v>17.20396108241705</v>
       </c>
       <c r="O14">
-        <v>20.24626019119624</v>
+        <v>24.20172198558013</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.50332292748337</v>
+        <v>19.09213836049997</v>
       </c>
       <c r="C15">
-        <v>16.22960033678709</v>
+        <v>10.30944770637774</v>
       </c>
       <c r="D15">
-        <v>9.246146980528307</v>
+        <v>6.544750212174051</v>
       </c>
       <c r="E15">
-        <v>6.259636164295455</v>
+        <v>10.5805289422021</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.039417719936065</v>
+        <v>3.630385131701199</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.49483346968186</v>
+        <v>22.83653229151241</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.628244937584647</v>
+        <v>10.14422388755469</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.75601738113153</v>
+        <v>17.21031327767925</v>
       </c>
       <c r="O15">
-        <v>20.17401563837104</v>
+        <v>24.197783381566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.56511473711931</v>
+        <v>18.73245801466775</v>
       </c>
       <c r="C16">
-        <v>15.7603250079183</v>
+        <v>10.08214675773372</v>
       </c>
       <c r="D16">
-        <v>8.931535363222737</v>
+        <v>6.4533095296312</v>
       </c>
       <c r="E16">
-        <v>6.266334157498238</v>
+        <v>10.59871740260653</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.044064370120584</v>
+        <v>3.631957465681261</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.36745970045483</v>
+        <v>22.87470439281838</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.430663191209733</v>
+        <v>10.11650242410251</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.88834006051879</v>
+        <v>17.24725985943011</v>
       </c>
       <c r="O16">
-        <v>19.7636387915089</v>
+        <v>24.17725931881033</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.97587621340989</v>
+        <v>18.50892220039756</v>
       </c>
       <c r="C17">
-        <v>15.46632358574135</v>
+        <v>9.939708290036558</v>
       </c>
       <c r="D17">
-        <v>8.734416280749004</v>
+        <v>6.39701608132823</v>
       </c>
       <c r="E17">
-        <v>6.271739205884861</v>
+        <v>10.61029738147315</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.046937027796666</v>
+        <v>3.63294343713713</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.29537217100746</v>
+        <v>22.89966873505898</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.308691263713119</v>
+        <v>10.09994968902006</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.97028560255603</v>
+        <v>17.2704122606565</v>
       </c>
       <c r="O17">
-        <v>19.51515208695519</v>
+        <v>24.16649644367788</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.63189678882865</v>
+        <v>18.3793338871181</v>
       </c>
       <c r="C18">
-        <v>15.29496759572608</v>
+        <v>9.856692290863414</v>
       </c>
       <c r="D18">
-        <v>8.619509729526918</v>
+        <v>6.364577968058511</v>
       </c>
       <c r="E18">
-        <v>6.275311718900682</v>
+        <v>10.61711293948273</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.048597866493358</v>
+        <v>3.633518424971118</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.25607906541175</v>
+        <v>22.91459456878484</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.238270456281537</v>
+        <v>10.09059767471463</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.01770340008567</v>
+        <v>17.28390815536775</v>
       </c>
       <c r="O18">
-        <v>19.37344264681318</v>
+        <v>24.16097829170503</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.51455777754593</v>
+        <v>18.33528720515493</v>
       </c>
       <c r="C19">
-        <v>15.23656176555105</v>
+        <v>9.828398655319287</v>
       </c>
       <c r="D19">
-        <v>8.580340218538804</v>
+        <v>6.353585997691426</v>
       </c>
       <c r="E19">
-        <v>6.276599767575183</v>
+        <v>10.61944720174388</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.049161709412985</v>
+        <v>3.633714461843478</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.24314250503489</v>
+        <v>22.91974543800493</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.214382997700229</v>
+        <v>10.08746040264145</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.03380738467382</v>
+        <v>17.28850844998246</v>
       </c>
       <c r="O19">
-        <v>19.32567207988378</v>
+        <v>24.15922546370149</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.03912501704815</v>
+        <v>18.53282416943275</v>
       </c>
       <c r="C20">
-        <v>15.49785371136728</v>
+        <v>9.954984117390811</v>
       </c>
       <c r="D20">
-        <v>8.755557806974574</v>
+        <v>6.403015081523616</v>
       </c>
       <c r="E20">
-        <v>6.271115559559831</v>
+        <v>10.60904862469819</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.046630352160146</v>
+        <v>3.632837663378145</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.30282021096721</v>
+        <v>22.89695252094297</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.321703231851513</v>
+        <v>10.10169434305703</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.96153292207941</v>
+        <v>17.26792910405148</v>
       </c>
       <c r="O20">
-        <v>19.5414786462558</v>
+        <v>24.16757259351618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.74135296065296</v>
+        <v>19.18407541838501</v>
       </c>
       <c r="C21">
-        <v>16.34887351939733</v>
+        <v>10.36719661478772</v>
       </c>
       <c r="D21">
-        <v>9.326115150001824</v>
+        <v>6.568286954482846</v>
       </c>
       <c r="E21">
-        <v>6.258318016343361</v>
+        <v>10.57596349200696</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.038224500894755</v>
+        <v>3.629985784056613</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.52963357938123</v>
+        <v>22.82715648862848</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.679010552172691</v>
+        <v>10.15151953530805</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.72209083853806</v>
+        <v>17.20092465655912</v>
       </c>
       <c r="O21">
-        <v>20.28096722579461</v>
+        <v>24.20364682358291</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.80958327072565</v>
+        <v>19.59976848788045</v>
       </c>
       <c r="C22">
-        <v>16.88515493419033</v>
+        <v>10.62665907314277</v>
       </c>
       <c r="D22">
-        <v>9.685753054926369</v>
+        <v>6.675500141881444</v>
       </c>
       <c r="E22">
-        <v>6.254355072644866</v>
+        <v>10.55572132628413</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.032797309586116</v>
+        <v>3.628191682961508</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.69832923507351</v>
+        <v>22.78662153072454</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.909887103244683</v>
+        <v>10.18554136832749</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.56810075897997</v>
+        <v>17.15872273857882</v>
       </c>
       <c r="O22">
-        <v>20.77482466834901</v>
+        <v>24.23319535956576</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.24345829561706</v>
+        <v>19.37885473243634</v>
       </c>
       <c r="C23">
-        <v>16.60074307731857</v>
+        <v>10.48909945596023</v>
       </c>
       <c r="D23">
-        <v>9.495002246471755</v>
+        <v>6.618364455018947</v>
       </c>
       <c r="E23">
-        <v>6.256053983975162</v>
+        <v>10.56639859590128</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.035688311841956</v>
+        <v>3.62914286560124</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.60636735114898</v>
+        <v>22.80778941033716</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.786917342103882</v>
+        <v>10.16725204339045</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.65006096263028</v>
+        <v>17.18110159438564</v>
       </c>
       <c r="O23">
-        <v>20.51028657034734</v>
+        <v>24.21687929142709</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.01054649594147</v>
+        <v>18.52202142611957</v>
       </c>
       <c r="C24">
-        <v>15.48360620257233</v>
+        <v>9.948081421025876</v>
       </c>
       <c r="D24">
-        <v>8.746004648740097</v>
+        <v>6.400303161794868</v>
       </c>
       <c r="E24">
-        <v>6.271396064421933</v>
+        <v>10.60961269525644</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.046768971113623</v>
+        <v>3.632885458334301</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.2994462651171</v>
+        <v>22.89817873521656</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.315821444416837</v>
+        <v>10.10090507248465</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.96548905467135</v>
+        <v>17.26905116193771</v>
       </c>
       <c r="O24">
-        <v>19.52957282716526</v>
+        <v>24.16708398030737</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.40790210394308</v>
+        <v>17.55959085303909</v>
       </c>
       <c r="C25">
-        <v>14.19242446560428</v>
+        <v>9.323069815358403</v>
       </c>
       <c r="D25">
-        <v>7.879449099394721</v>
+        <v>6.162989621727928</v>
       </c>
       <c r="E25">
-        <v>6.30552570391276</v>
+        <v>10.66215439510233</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.059053380277511</v>
+        <v>3.637224108391386</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.05058551210329</v>
+        <v>23.01733549434945</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.797769436219055</v>
+        <v>10.03581025154235</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.3166584892874</v>
+        <v>17.37077643172135</v>
       </c>
       <c r="O25">
-        <v>18.51836131308542</v>
+        <v>24.1390749061489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.82361958449795</v>
+        <v>22.32016733930117</v>
       </c>
       <c r="C2">
-        <v>8.828868593120227</v>
+        <v>13.16728168460492</v>
       </c>
       <c r="D2">
-        <v>5.987990474260265</v>
+        <v>7.189070205012484</v>
       </c>
       <c r="E2">
-        <v>10.70594448902044</v>
+        <v>6.344394663480593</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.640681020734384</v>
+        <v>2.068432439191757</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.12352289791189</v>
+        <v>14.93136746227218</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.993645275870515</v>
+        <v>7.409843321182439</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.45162601311849</v>
+        <v>11.58496094565215</v>
       </c>
       <c r="O2">
-        <v>24.14055000092353</v>
+        <v>17.8156297589035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.31107159179798</v>
+        <v>20.79622858816424</v>
       </c>
       <c r="C3">
-        <v>8.473805340625189</v>
+        <v>12.42635528250741</v>
       </c>
       <c r="D3">
-        <v>5.87005884353578</v>
+        <v>6.687650215736145</v>
       </c>
       <c r="E3">
-        <v>10.7388079170951</v>
+        <v>6.37865348266972</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.643188961538602</v>
+        <v>2.07501903181046</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.2069061386077</v>
+        <v>14.88692275057378</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.968754770430349</v>
+        <v>7.144242351520091</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.51015648793963</v>
+        <v>11.77306284961824</v>
       </c>
       <c r="O3">
-        <v>24.15529775215094</v>
+        <v>17.36645402238005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.99082084125332</v>
+        <v>19.80605584299073</v>
       </c>
       <c r="C4">
-        <v>8.246311597960847</v>
+        <v>11.94889595500414</v>
       </c>
       <c r="D4">
-        <v>5.798268398553287</v>
+        <v>6.36294894772313</v>
       </c>
       <c r="E4">
-        <v>10.76055881878891</v>
+        <v>6.403387804948616</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.644810800605504</v>
+        <v>2.07918348475235</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.26370468744573</v>
+        <v>14.87631926368328</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.955316409101874</v>
+        <v>6.980374994681219</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.54794695543648</v>
+        <v>11.89172064834913</v>
       </c>
       <c r="O4">
-        <v>24.17111326079354</v>
+        <v>17.10432281667066</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.85912689255262</v>
+        <v>19.38876092563162</v>
       </c>
       <c r="C5">
-        <v>8.151300566514884</v>
+        <v>11.7487222482307</v>
       </c>
       <c r="D5">
-        <v>5.769214006851414</v>
+        <v>6.227145104685292</v>
       </c>
       <c r="E5">
-        <v>10.76981804472281</v>
+        <v>6.414368023366065</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.64549238931397</v>
+        <v>2.080911691965638</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.28825416204098</v>
+        <v>14.87600509056054</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.950307829929187</v>
+        <v>6.913491689685925</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.56381391452165</v>
+        <v>11.94088005910557</v>
       </c>
       <c r="O5">
-        <v>24.17925441160765</v>
+        <v>17.00097971298009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.83719366054018</v>
+        <v>19.31863371959574</v>
       </c>
       <c r="C6">
-        <v>8.135387341894889</v>
+        <v>11.71514718235096</v>
       </c>
       <c r="D6">
-        <v>5.7644029923355</v>
+        <v>6.207653134793744</v>
       </c>
       <c r="E6">
-        <v>10.77137942603158</v>
+        <v>6.416244845970922</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.645606817395457</v>
+        <v>2.081200567357568</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.29241521578686</v>
+        <v>14.87618934225631</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.949504509025212</v>
+        <v>6.902382206032796</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.56647685455767</v>
+        <v>11.94909188916208</v>
       </c>
       <c r="O6">
-        <v>24.18070856131215</v>
+        <v>16.98403069672556</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.9890493041389</v>
+        <v>19.80048402330604</v>
       </c>
       <c r="C7">
-        <v>8.24503946808322</v>
+        <v>11.94621894319921</v>
       </c>
       <c r="D7">
-        <v>5.797875688299428</v>
+        <v>6.361124198364807</v>
       </c>
       <c r="E7">
-        <v>10.76068209020327</v>
+        <v>6.403532278847618</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.644819908940905</v>
+        <v>2.079206664615762</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.26403009355483</v>
+        <v>14.87629905501709</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.955246963334117</v>
+        <v>6.979473284961364</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.54815905018794</v>
+        <v>11.89238035462755</v>
       </c>
       <c r="O7">
-        <v>24.17121619306687</v>
+        <v>17.10291496831674</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.64816221453172</v>
+        <v>21.80596004486271</v>
       </c>
       <c r="C8">
-        <v>8.708455288103185</v>
+        <v>12.91651515148132</v>
       </c>
       <c r="D8">
-        <v>5.947225753522576</v>
+        <v>7.019648749982897</v>
       </c>
       <c r="E8">
-        <v>10.71694946617649</v>
+        <v>6.355421270508524</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.641528790481242</v>
+        <v>2.0706791054695</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.1511081263668</v>
+        <v>14.91246725904685</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.984682630057714</v>
+        <v>7.3184800878939</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.47142355533343</v>
+        <v>11.64916814577427</v>
       </c>
       <c r="O8">
-        <v>24.14422996410831</v>
+        <v>17.65794563578456</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.88843321288948</v>
+        <v>25.31094366618157</v>
       </c>
       <c r="C9">
-        <v>9.539012183215007</v>
+        <v>14.63892799684561</v>
       </c>
       <c r="D9">
-        <v>6.243077488957371</v>
+        <v>8.179356808768027</v>
       </c>
       <c r="E9">
-        <v>10.64366315197704</v>
+        <v>6.291804946083777</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.635722064912869</v>
+        <v>2.054866533023966</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.97431899392965</v>
+        <v>15.12400892484843</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.05685488903495</v>
+        <v>7.973439541611217</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.33558936605135</v>
+        <v>11.19687826564566</v>
       </c>
       <c r="O9">
-        <v>24.14507463999816</v>
+        <v>18.85262144397991</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.75782408923492</v>
+        <v>27.63166738136806</v>
       </c>
       <c r="C10">
-        <v>10.09825149268677</v>
+        <v>15.79356759755834</v>
       </c>
       <c r="D10">
-        <v>6.459723977404036</v>
+        <v>8.953822047392338</v>
       </c>
       <c r="E10">
-        <v>10.59741705790005</v>
+        <v>6.265781141113257</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.631846026189658</v>
+        <v>2.043737708275343</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.87193272868551</v>
+        <v>15.37598336436011</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.11841391769996</v>
+        <v>8.444543953730919</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.24464227427628</v>
+        <v>10.87902795909424</v>
       </c>
       <c r="O10">
-        <v>24.17857850719588</v>
+        <v>19.79215628695595</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.14244128208345</v>
+        <v>28.63364476868264</v>
       </c>
       <c r="C11">
-        <v>10.34106178716267</v>
+        <v>16.29489215079147</v>
       </c>
       <c r="D11">
-        <v>6.557620162825679</v>
+        <v>9.289922148780816</v>
       </c>
       <c r="E11">
-        <v>10.57802687985333</v>
+        <v>6.258895111884942</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.63016650879909</v>
+        <v>2.038765152981909</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.83138352941395</v>
+        <v>15.5137613398791</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.14820523769184</v>
+        <v>8.656007849602631</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.20517371085961</v>
+        <v>10.73746018938379</v>
       </c>
       <c r="O11">
-        <v>24.20096089040041</v>
+        <v>20.23243085575754</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.28639148340697</v>
+        <v>29.00546569607628</v>
       </c>
       <c r="C12">
-        <v>10.43130529723378</v>
+        <v>16.48131413089002</v>
       </c>
       <c r="D12">
-        <v>6.594556730622096</v>
+        <v>9.414917472862792</v>
       </c>
       <c r="E12">
-        <v>10.57092114708429</v>
+        <v>6.257039219095482</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.629542486411436</v>
+        <v>2.036893692715978</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.81689975143852</v>
+        <v>15.56943250720738</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.15973728333318</v>
+        <v>8.735633104040417</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.19050057486697</v>
+        <v>10.68428055730008</v>
       </c>
       <c r="O12">
-        <v>24.21046147977304</v>
+        <v>20.40096607158022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.25546662249248</v>
+        <v>28.92572370898069</v>
       </c>
       <c r="C13">
-        <v>10.41194602879372</v>
+        <v>16.44131640562976</v>
       </c>
       <c r="D13">
-        <v>6.586608380683664</v>
+        <v>9.388097965830362</v>
       </c>
       <c r="E13">
-        <v>10.57244095706799</v>
+        <v>6.257404839615146</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.629676349236659</v>
+        <v>2.03729625558332</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.81998026725575</v>
+        <v>15.55728456478597</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.15724260522378</v>
+        <v>8.718505032435804</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.19364858218795</v>
+        <v>10.69571473717012</v>
       </c>
       <c r="O13">
-        <v>24.20836982150674</v>
+        <v>20.36458884142449</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.15431885099341</v>
+        <v>28.66438642734438</v>
       </c>
       <c r="C14">
-        <v>10.34852050509734</v>
+        <v>16.31029755141406</v>
       </c>
       <c r="D14">
-        <v>6.560661875685374</v>
+        <v>9.300250943798044</v>
       </c>
       <c r="E14">
-        <v>10.5774375388994</v>
+        <v>6.258727128957549</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.630114930478206</v>
+        <v>2.038610964022754</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.83017445151174</v>
+        <v>15.51827040454215</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.1491489989402</v>
+        <v>8.662567924271867</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.20396108241705</v>
+        <v>10.73307649851465</v>
       </c>
       <c r="O14">
-        <v>24.20172198558013</v>
+        <v>20.24626019119624</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.09213836049997</v>
+        <v>28.50332292748338</v>
       </c>
       <c r="C15">
-        <v>10.30944770637774</v>
+        <v>16.22960033678714</v>
       </c>
       <c r="D15">
-        <v>6.544750212174051</v>
+        <v>9.246146980528362</v>
       </c>
       <c r="E15">
-        <v>10.5805289422021</v>
+        <v>6.259636164295566</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.630385131701199</v>
+        <v>2.039417719936198</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.83653229151241</v>
+        <v>15.49483346968181</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.14422388755469</v>
+        <v>8.628244937584659</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.21031327767925</v>
+        <v>10.75601738113146</v>
       </c>
       <c r="O15">
-        <v>24.197783381566</v>
+        <v>20.17401563837101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.73245801466775</v>
+        <v>27.56511473711938</v>
       </c>
       <c r="C16">
-        <v>10.08214675773372</v>
+        <v>15.76032500791823</v>
       </c>
       <c r="D16">
-        <v>6.4533095296312</v>
+        <v>8.931535363222848</v>
       </c>
       <c r="E16">
-        <v>10.59871740260653</v>
+        <v>6.266334157498153</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.631957465681261</v>
+        <v>2.044064370120316</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.87470439281838</v>
+        <v>15.36745970045475</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.11650242410251</v>
+        <v>8.430663191209716</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.24725985943011</v>
+        <v>10.88834006051872</v>
       </c>
       <c r="O16">
-        <v>24.17725931881033</v>
+        <v>19.76363879150886</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.50892220039756</v>
+        <v>26.97587621340987</v>
       </c>
       <c r="C17">
-        <v>9.939708290036558</v>
+        <v>15.4663235857416</v>
       </c>
       <c r="D17">
-        <v>6.39701608132823</v>
+        <v>8.734416280748963</v>
       </c>
       <c r="E17">
-        <v>10.61029738147315</v>
+        <v>6.271739205884915</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.63294343713713</v>
+        <v>2.046937027797066</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.89966873505898</v>
+        <v>15.29537217100752</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.09994968902006</v>
+        <v>8.308691263713119</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.2704122606565</v>
+        <v>10.97028560255607</v>
       </c>
       <c r="O17">
-        <v>24.16649644367788</v>
+        <v>19.5151520869552</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.3793338871181</v>
+        <v>26.63189678882867</v>
       </c>
       <c r="C18">
-        <v>9.856692290863414</v>
+        <v>15.29496759572599</v>
       </c>
       <c r="D18">
-        <v>6.364577968058511</v>
+        <v>8.619509729526925</v>
       </c>
       <c r="E18">
-        <v>10.61711293948273</v>
+        <v>6.275311718900678</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.633518424971118</v>
+        <v>2.048597866493358</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.91459456878484</v>
+        <v>15.25607906541177</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.09059767471463</v>
+        <v>8.238270456281548</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.28390815536775</v>
+        <v>11.01770340008567</v>
       </c>
       <c r="O18">
-        <v>24.16097829170503</v>
+        <v>19.37344264681322</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.33528720515493</v>
+        <v>26.51455777754595</v>
       </c>
       <c r="C19">
-        <v>9.828398655319287</v>
+        <v>15.23656176555104</v>
       </c>
       <c r="D19">
-        <v>6.353585997691426</v>
+        <v>8.580340218538813</v>
       </c>
       <c r="E19">
-        <v>10.61944720174388</v>
+        <v>6.276599767575192</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.633714461843478</v>
+        <v>2.049161709412984</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.91974543800493</v>
+        <v>15.24314250503492</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.08746040264145</v>
+        <v>8.214382997700236</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.28850844998246</v>
+        <v>11.03380738467381</v>
       </c>
       <c r="O19">
-        <v>24.15922546370149</v>
+        <v>19.3256720798838</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.53282416943275</v>
+        <v>27.0391250170482</v>
       </c>
       <c r="C20">
-        <v>9.954984117390811</v>
+        <v>15.49785371136733</v>
       </c>
       <c r="D20">
-        <v>6.403015081523616</v>
+        <v>8.755557806974549</v>
       </c>
       <c r="E20">
-        <v>10.60904862469819</v>
+        <v>6.271115559559835</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.632837663378145</v>
+        <v>2.04663035216001</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.89695252094297</v>
+        <v>15.30282021096714</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.10169434305703</v>
+        <v>8.321703231851513</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.26792910405148</v>
+        <v>10.96153292207934</v>
       </c>
       <c r="O20">
-        <v>24.16757259351618</v>
+        <v>19.54147864625577</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.18407541838501</v>
+        <v>28.74135296065296</v>
       </c>
       <c r="C21">
-        <v>10.36719661478772</v>
+        <v>16.34887351939732</v>
       </c>
       <c r="D21">
-        <v>6.568286954482846</v>
+        <v>9.326115150001847</v>
       </c>
       <c r="E21">
-        <v>10.57596349200696</v>
+        <v>6.258318016343212</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.629985784056613</v>
+        <v>2.038224500894755</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.82715648862848</v>
+        <v>15.52963357938126</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.15151953530805</v>
+        <v>8.679010552172644</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.20092465655912</v>
+        <v>10.72209083853803</v>
       </c>
       <c r="O21">
-        <v>24.20364682358291</v>
+        <v>20.28096722579462</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.59976848788045</v>
+        <v>29.80958327072558</v>
       </c>
       <c r="C22">
-        <v>10.62665907314277</v>
+        <v>16.88515493419</v>
       </c>
       <c r="D22">
-        <v>6.675500141881444</v>
+        <v>9.68575305492638</v>
       </c>
       <c r="E22">
-        <v>10.55572132628413</v>
+        <v>6.254355072644821</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.628191682961508</v>
+        <v>2.032797309586249</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.78662153072454</v>
+        <v>15.69832923507357</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.18554136832749</v>
+        <v>8.909887103244692</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.15872273857882</v>
+        <v>10.56810075898</v>
       </c>
       <c r="O22">
-        <v>24.23319535956576</v>
+        <v>20.77482466834907</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.37885473243634</v>
+        <v>29.24345829561711</v>
       </c>
       <c r="C23">
-        <v>10.48909945596023</v>
+        <v>16.60074307731869</v>
       </c>
       <c r="D23">
-        <v>6.618364455018947</v>
+        <v>9.495002246471767</v>
       </c>
       <c r="E23">
-        <v>10.56639859590128</v>
+        <v>6.25605398397528</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.62914286560124</v>
+        <v>2.03568831184209</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.80778941033716</v>
+        <v>15.60636735114896</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.16725204339045</v>
+        <v>8.786917342103887</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.18110159438564</v>
+        <v>10.65006096263024</v>
       </c>
       <c r="O23">
-        <v>24.21687929142709</v>
+        <v>20.51028657034734</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.52202142611957</v>
+        <v>27.01054649594139</v>
       </c>
       <c r="C24">
-        <v>9.948081421025876</v>
+        <v>15.48360620257229</v>
       </c>
       <c r="D24">
-        <v>6.400303161794868</v>
+        <v>8.746004648740008</v>
       </c>
       <c r="E24">
-        <v>10.60961269525644</v>
+        <v>6.271396064421888</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.632885458334301</v>
+        <v>2.046768971113489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.89817873521656</v>
+        <v>15.29944626511726</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.10090507248465</v>
+        <v>8.31582144441683</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.26905116193771</v>
+        <v>10.96548905467148</v>
       </c>
       <c r="O24">
-        <v>24.16708398030737</v>
+        <v>19.52957282716536</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.55959085303909</v>
+        <v>24.40790210394305</v>
       </c>
       <c r="C25">
-        <v>9.323069815358403</v>
+        <v>14.1924244656044</v>
       </c>
       <c r="D25">
-        <v>6.162989621727928</v>
+        <v>7.879449099394551</v>
       </c>
       <c r="E25">
-        <v>10.66215439510233</v>
+        <v>6.305525703912871</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.637224108391386</v>
+        <v>2.059053380277777</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.01733549434945</v>
+        <v>15.0505855121034</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.03581025154235</v>
+        <v>7.797769436219058</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.37077643172135</v>
+        <v>11.3166584892875</v>
       </c>
       <c r="O25">
-        <v>24.1390749061489</v>
+        <v>18.5183613130855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.32016733930117</v>
+        <v>13.36879310227368</v>
       </c>
       <c r="C2">
-        <v>13.16728168460492</v>
+        <v>8.808766197256087</v>
       </c>
       <c r="D2">
-        <v>7.189070205012484</v>
+        <v>12.44650782601257</v>
       </c>
       <c r="E2">
-        <v>6.344394663480593</v>
+        <v>13.73616788536572</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.068432439191757</v>
+        <v>25.44909927823221</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.256502708452626</v>
       </c>
       <c r="I2">
-        <v>14.93136746227218</v>
+        <v>3.008035211332196</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.897764128773414</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.99817387978042</v>
       </c>
       <c r="L2">
-        <v>7.409843321182439</v>
+        <v>6.371587096497872</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.30687409241352</v>
       </c>
       <c r="N2">
-        <v>11.58496094565215</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.8156297589035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.4107141958596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.79622858816424</v>
+        <v>12.53006937682581</v>
       </c>
       <c r="C3">
-        <v>12.42635528250741</v>
+        <v>8.308568495795361</v>
       </c>
       <c r="D3">
-        <v>6.687650215736145</v>
+        <v>11.88695715437926</v>
       </c>
       <c r="E3">
-        <v>6.37865348266972</v>
+        <v>13.08391183590807</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.07501903181046</v>
+        <v>25.15561911072421</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.483753762941719</v>
       </c>
       <c r="I3">
-        <v>14.88692275057378</v>
+        <v>3.15189501950576</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.924478431632696</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.10357420556111</v>
       </c>
       <c r="L3">
-        <v>7.144242351520091</v>
+        <v>6.17090248594769</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.61157524684146</v>
       </c>
       <c r="N3">
-        <v>11.77306284961824</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.36645402238005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.38158172839222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.80605584299073</v>
+        <v>11.98383917982958</v>
       </c>
       <c r="C4">
-        <v>11.94889595500414</v>
+        <v>7.989529538243935</v>
       </c>
       <c r="D4">
-        <v>6.36294894772313</v>
+        <v>11.53186658570933</v>
       </c>
       <c r="E4">
-        <v>6.403387804948616</v>
+        <v>12.66690632783757</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.07918348475235</v>
+        <v>24.98379459616316</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.62854744550356</v>
       </c>
       <c r="I4">
-        <v>14.87631926368328</v>
+        <v>3.24413963660863</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.943466268506574</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.17179288322901</v>
       </c>
       <c r="L4">
-        <v>6.980374994681219</v>
+        <v>6.043592852660801</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.16281250276364</v>
       </c>
       <c r="N4">
-        <v>11.89172064834913</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.10432281667066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.36896619692948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.38876092563162</v>
+        <v>11.75093594345618</v>
       </c>
       <c r="C5">
-        <v>11.7487222482307</v>
+        <v>7.866808824857781</v>
       </c>
       <c r="D5">
-        <v>6.227145104685292</v>
+        <v>11.38434745611082</v>
       </c>
       <c r="E5">
-        <v>6.414368023366065</v>
+        <v>12.49279892429204</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.080911691965638</v>
+        <v>24.90223275649198</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.689103610713725</v>
       </c>
       <c r="I5">
-        <v>14.87600509056054</v>
+        <v>3.285458596264784</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.949555587975725</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.1950442124198</v>
       </c>
       <c r="L5">
-        <v>6.913491689685925</v>
+        <v>5.990611742915113</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.97644375378283</v>
       </c>
       <c r="N5">
-        <v>11.94088005910557</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.00097971298009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.35945522289243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.31863371959574</v>
+        <v>11.70877532216325</v>
       </c>
       <c r="C6">
-        <v>11.71514718235096</v>
+        <v>7.858786641576923</v>
       </c>
       <c r="D6">
-        <v>6.207653134793744</v>
+        <v>11.35959032659279</v>
       </c>
       <c r="E6">
-        <v>6.416244845970922</v>
+        <v>12.46345351622902</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.081200567357568</v>
+        <v>24.87214162484172</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.699498129180053</v>
       </c>
       <c r="I6">
-        <v>14.87618934225631</v>
+        <v>3.295895761144632</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.947814587292042</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.19235453082717</v>
       </c>
       <c r="L6">
-        <v>6.902382206032796</v>
+        <v>5.981623429726943</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.94752677387742</v>
       </c>
       <c r="N6">
-        <v>11.94909188916208</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.98403069672556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.35103506606005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.80048402330604</v>
+        <v>11.97268750506703</v>
       </c>
       <c r="C7">
-        <v>11.94621894319921</v>
+        <v>8.021424938439964</v>
       </c>
       <c r="D7">
-        <v>6.361124198364807</v>
+        <v>11.529617849155</v>
       </c>
       <c r="E7">
-        <v>6.403532278847618</v>
+        <v>12.66405210426785</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.079206664615762</v>
+        <v>24.93736233079248</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.630049493462498</v>
       </c>
       <c r="I7">
-        <v>14.87629905501709</v>
+        <v>3.253992832700796</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.935944555484216</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.15408459681184</v>
       </c>
       <c r="L7">
-        <v>6.979473284961364</v>
+        <v>6.042531009294771</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.16663423514053</v>
       </c>
       <c r="N7">
-        <v>11.89238035462755</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.10291496831674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.34999055460369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.80596004486271</v>
+        <v>13.07624448518149</v>
       </c>
       <c r="C8">
-        <v>12.91651515148132</v>
+        <v>8.680272128939738</v>
       </c>
       <c r="D8">
-        <v>7.019648749982897</v>
+        <v>12.25573486130065</v>
       </c>
       <c r="E8">
-        <v>6.355421270508524</v>
+        <v>13.51415368142944</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.0706791054695</v>
+        <v>25.2873037540733</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.334634470545591</v>
       </c>
       <c r="I8">
-        <v>14.91246725904685</v>
+        <v>3.068711667003236</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.896456084840601</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.01001809684059</v>
       </c>
       <c r="L8">
-        <v>7.3184800878939</v>
+        <v>6.302833466049663</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.07956024193846</v>
       </c>
       <c r="N8">
-        <v>11.64916814577427</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.65794563578456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.37487823105787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.31094366618157</v>
+        <v>15.00513844384906</v>
       </c>
       <c r="C9">
-        <v>14.63892799684561</v>
+        <v>9.821752596458623</v>
       </c>
       <c r="D9">
-        <v>8.179356808768027</v>
+        <v>13.58257884248923</v>
       </c>
       <c r="E9">
-        <v>6.291804946083777</v>
+        <v>15.04592504755076</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.054866533023966</v>
+        <v>26.11948429052785</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.795126817242716</v>
       </c>
       <c r="I9">
-        <v>15.12400892484843</v>
+        <v>2.72080722349587</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.853754567197917</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.78853475813341</v>
       </c>
       <c r="L9">
-        <v>7.973439541611217</v>
+        <v>6.780063341025942</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.68372904994235</v>
       </c>
       <c r="N9">
-        <v>11.19687826564566</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.85262144397991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.50049480530751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.63166738136806</v>
+        <v>16.27070338018079</v>
       </c>
       <c r="C10">
-        <v>15.79356759755834</v>
+        <v>10.58949381611715</v>
       </c>
       <c r="D10">
-        <v>8.953822047392338</v>
+        <v>14.35465071251754</v>
       </c>
       <c r="E10">
-        <v>6.265781141113257</v>
+        <v>15.83036827207356</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.043737708275343</v>
+        <v>26.5431167448457</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.684977690393243</v>
       </c>
       <c r="I10">
-        <v>15.37598336436011</v>
+        <v>2.494453380263605</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.797653238111412</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.5771692157423</v>
       </c>
       <c r="L10">
-        <v>8.444543953730919</v>
+        <v>7.003164223000964</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.74836293346207</v>
       </c>
       <c r="N10">
-        <v>10.87902795909424</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>19.79215628695595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.52474227594357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.63364476868264</v>
+        <v>16.82539550757268</v>
       </c>
       <c r="C11">
-        <v>16.29489215079147</v>
+        <v>10.75805870493933</v>
       </c>
       <c r="D11">
-        <v>9.289922148780816</v>
+        <v>13.51835726690594</v>
       </c>
       <c r="E11">
-        <v>6.258895111884942</v>
+        <v>14.02421296382319</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.038765152981909</v>
+        <v>24.89033669092136</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.667124775851325</v>
       </c>
       <c r="I11">
-        <v>15.5137613398791</v>
+        <v>2.548325277077569</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.462081994872232</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.95796650436854</v>
       </c>
       <c r="L11">
-        <v>8.656007849602631</v>
+        <v>6.249600280261074</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.15627081582054</v>
       </c>
       <c r="N11">
-        <v>10.73746018938379</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>20.23243085575754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.75813594018085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.00546569607628</v>
+        <v>17.04775810308221</v>
       </c>
       <c r="C12">
-        <v>16.48131413089002</v>
+        <v>10.70221169335469</v>
       </c>
       <c r="D12">
-        <v>9.414917472862792</v>
+        <v>12.64240036514171</v>
       </c>
       <c r="E12">
-        <v>6.257039219095482</v>
+        <v>12.35967328692581</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.036893692715978</v>
+        <v>23.46190203981838</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.051739342256213</v>
       </c>
       <c r="I12">
-        <v>15.56943250720738</v>
+        <v>2.556373415551655</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.203878571388003</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.5224839343479</v>
       </c>
       <c r="L12">
-        <v>8.735633104040417</v>
+        <v>5.658931205148657</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.27690350071738</v>
       </c>
       <c r="N12">
-        <v>10.68428055730008</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20.40096607158022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.13559167047291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.92572370898069</v>
+        <v>17.02594728653711</v>
       </c>
       <c r="C13">
-        <v>16.44131640562976</v>
+        <v>10.50937894828567</v>
       </c>
       <c r="D13">
-        <v>9.388097965830362</v>
+        <v>11.66185227200936</v>
       </c>
       <c r="E13">
-        <v>6.257404839615146</v>
+        <v>10.6845074798692</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.03729625558332</v>
+        <v>22.04635837992815</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.511230773103606</v>
       </c>
       <c r="I13">
-        <v>15.55728456478597</v>
+        <v>2.523100578531743</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.979066532639722</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.17814070638023</v>
       </c>
       <c r="L13">
-        <v>8.718505032435804</v>
+        <v>5.180911524621204</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.19526017641514</v>
       </c>
       <c r="N13">
-        <v>10.69571473717012</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20.36458884142449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.55929142901915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.66438642734438</v>
+        <v>16.8983127185335</v>
       </c>
       <c r="C14">
-        <v>16.31029755141406</v>
+        <v>10.31812682674435</v>
       </c>
       <c r="D14">
-        <v>9.300250943798044</v>
+        <v>10.9193766389627</v>
       </c>
       <c r="E14">
-        <v>6.258727128957549</v>
+        <v>9.521091787295177</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.038610964022754</v>
+        <v>21.05740269632901</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.536564178880766</v>
       </c>
       <c r="I14">
-        <v>15.51827040454215</v>
+        <v>2.521079726699769</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.837357595847056</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.98079178718335</v>
       </c>
       <c r="L14">
-        <v>8.662567924271867</v>
+        <v>4.933155655076664</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.04726291790458</v>
       </c>
       <c r="N14">
-        <v>10.73307649851465</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20.24626019119624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.17787104025946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.50332292748338</v>
+        <v>16.81183181050835</v>
       </c>
       <c r="C15">
-        <v>16.22960033678714</v>
+        <v>10.25193294272567</v>
       </c>
       <c r="D15">
-        <v>9.246146980528362</v>
+        <v>10.71551147639783</v>
       </c>
       <c r="E15">
-        <v>6.259636164295566</v>
+        <v>9.232617258890699</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.039417719936198</v>
+        <v>20.80789721146999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.774840778161205</v>
       </c>
       <c r="I15">
-        <v>15.49483346968181</v>
+        <v>2.545418855015657</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.807811480596667</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.94604235655112</v>
       </c>
       <c r="L15">
-        <v>8.628244937584659</v>
+        <v>4.884350919327711</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.96923982053213</v>
       </c>
       <c r="N15">
-        <v>10.75601738113146</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>20.17401563837101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.08983170680226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.56511473711938</v>
+        <v>16.29602089577367</v>
       </c>
       <c r="C16">
-        <v>15.76032500791823</v>
+        <v>9.979173411383469</v>
       </c>
       <c r="D16">
-        <v>8.931535363222848</v>
+        <v>10.53471421229577</v>
       </c>
       <c r="E16">
-        <v>6.266334157498153</v>
+        <v>9.152146517125967</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.044064370120316</v>
+        <v>20.86967281523095</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.575820307691843</v>
       </c>
       <c r="I16">
-        <v>15.36745970045475</v>
+        <v>2.640866620432111</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.874710344637659</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.10205864247652</v>
       </c>
       <c r="L16">
-        <v>8.430663191209716</v>
+        <v>4.868091059970077</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.54784031656255</v>
       </c>
       <c r="N16">
-        <v>10.88834006051872</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>19.76363879150886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.18727666670722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.97587621340987</v>
+        <v>15.96197697949945</v>
       </c>
       <c r="C17">
-        <v>15.4663235857416</v>
+        <v>9.873684679407353</v>
       </c>
       <c r="D17">
-        <v>8.734416280748963</v>
+        <v>10.80384505270882</v>
       </c>
       <c r="E17">
-        <v>6.271739205884915</v>
+        <v>9.712401005238597</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.046937027797066</v>
+        <v>21.44088992523499</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.84831122369556</v>
       </c>
       <c r="I17">
-        <v>15.29537217100752</v>
+        <v>2.69199184955789</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.999964084538489</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.3219731629657</v>
       </c>
       <c r="L17">
-        <v>8.308691263713119</v>
+        <v>4.971088920550823</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.30035317903219</v>
       </c>
       <c r="N17">
-        <v>10.97028560255607</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>19.5151520869552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.46150376096077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.63189678882867</v>
+        <v>15.76015599729624</v>
       </c>
       <c r="C18">
-        <v>15.29496759572599</v>
+        <v>9.881036401133549</v>
       </c>
       <c r="D18">
-        <v>8.619509729526925</v>
+        <v>11.49418618802982</v>
       </c>
       <c r="E18">
-        <v>6.275311718900678</v>
+        <v>10.95020886149735</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.048597866493358</v>
+        <v>22.55585767023292</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.606017320586474</v>
       </c>
       <c r="I18">
-        <v>15.25607906541177</v>
+        <v>2.698096004707699</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.197714605781313</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.64514900417626</v>
       </c>
       <c r="L18">
-        <v>8.238270456281548</v>
+        <v>5.278356306999883</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.17637184050955</v>
       </c>
       <c r="N18">
-        <v>11.01770340008567</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>19.37344264681322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.93847806399809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.51455777754595</v>
+        <v>15.67177755667124</v>
       </c>
       <c r="C19">
-        <v>15.23656176555104</v>
+        <v>10.03128076538949</v>
       </c>
       <c r="D19">
-        <v>8.580340218538813</v>
+        <v>12.46644185416806</v>
       </c>
       <c r="E19">
-        <v>6.276599767575192</v>
+        <v>12.68890368568769</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.049161709412984</v>
+        <v>23.9726741441327</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.131111278422317</v>
       </c>
       <c r="I19">
-        <v>15.24314250503492</v>
+        <v>2.685979033730158</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.4332629265962</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.020978481377</v>
       </c>
       <c r="L19">
-        <v>8.214382997700236</v>
+        <v>5.83231123526943</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.17378650342719</v>
       </c>
       <c r="N19">
-        <v>11.03380738467381</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>19.3256720798838</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.52704805667978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.0391250170482</v>
+        <v>15.92917428940899</v>
       </c>
       <c r="C20">
-        <v>15.49785371136733</v>
+        <v>10.47426579084348</v>
       </c>
       <c r="D20">
-        <v>8.755557806974549</v>
+        <v>14.14887662809425</v>
       </c>
       <c r="E20">
-        <v>6.271115559559835</v>
+        <v>15.61604113779453</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.04663035216001</v>
+        <v>26.28900603031027</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.589862164000248</v>
       </c>
       <c r="I20">
-        <v>15.30282021096714</v>
+        <v>2.585752786788206</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.786952528040597</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.57362517062467</v>
       </c>
       <c r="L20">
-        <v>8.321703231851513</v>
+        <v>6.940014165955259</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.49184216676858</v>
       </c>
       <c r="N20">
-        <v>10.96153292207934</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>19.54147864625577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.45628957088498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.74135296065296</v>
+        <v>16.85453418665174</v>
       </c>
       <c r="C21">
-        <v>16.34887351939732</v>
+        <v>11.06020023716123</v>
       </c>
       <c r="D21">
-        <v>9.326115150001847</v>
+        <v>14.93183843517303</v>
       </c>
       <c r="E21">
-        <v>6.258318016343212</v>
+        <v>16.58260133050627</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.038224500894755</v>
+        <v>26.98005587709661</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.871635796361027</v>
       </c>
       <c r="I21">
-        <v>15.52963357938126</v>
+        <v>2.60977867610841</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.808156538938123</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.52147915302976</v>
       </c>
       <c r="L21">
-        <v>8.679010552172644</v>
+        <v>7.267783852541607</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.28089105070234</v>
       </c>
       <c r="N21">
-        <v>10.72209083853803</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>20.28096722579462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.6335493401774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.80958327072558</v>
+        <v>17.44074954140589</v>
       </c>
       <c r="C22">
-        <v>16.88515493419</v>
+        <v>11.38778989319943</v>
       </c>
       <c r="D22">
-        <v>9.68575305492638</v>
+        <v>15.3599850973218</v>
       </c>
       <c r="E22">
-        <v>6.254355072644821</v>
+        <v>17.06732957383699</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.032797309586249</v>
+        <v>27.38483034346221</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.046347710540133</v>
       </c>
       <c r="I22">
-        <v>15.69832923507357</v>
+        <v>2.716588544831567</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.816498310335248</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.48452996966012</v>
       </c>
       <c r="L22">
-        <v>8.909887103244692</v>
+        <v>7.423763833588904</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.76666128410742</v>
       </c>
       <c r="N22">
-        <v>10.56810075898</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>20.77482466834907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.73342304393372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.24345829561711</v>
+        <v>17.1372696027353</v>
       </c>
       <c r="C23">
-        <v>16.60074307731869</v>
+        <v>11.18413106470727</v>
       </c>
       <c r="D23">
-        <v>9.495002246471767</v>
+        <v>15.13292274148549</v>
       </c>
       <c r="E23">
-        <v>6.25605398397528</v>
+        <v>16.8105914221601</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.03568831184209</v>
+        <v>27.21624977714612</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.954058883596363</v>
       </c>
       <c r="I23">
-        <v>15.60636735114896</v>
+        <v>2.654457190734818</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.820406392825506</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.52480005970591</v>
       </c>
       <c r="L23">
-        <v>8.786917342103887</v>
+        <v>7.341205246207509</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.50352744497531</v>
       </c>
       <c r="N23">
-        <v>10.65006096263024</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>20.51028657034734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.70057798278663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.01054649594139</v>
+        <v>15.92302727357818</v>
       </c>
       <c r="C24">
-        <v>15.48360620257229</v>
+        <v>10.43569908184279</v>
       </c>
       <c r="D24">
-        <v>8.746004648740008</v>
+        <v>14.24588959366946</v>
       </c>
       <c r="E24">
-        <v>6.271396064421888</v>
+        <v>15.8034667311407</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.046768971113489</v>
+        <v>26.5190410694477</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.59587117423704</v>
       </c>
       <c r="I24">
-        <v>15.29944626511726</v>
+        <v>2.564625593010967</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.827811064554796</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.65332428816322</v>
       </c>
       <c r="L24">
-        <v>8.31582144441683</v>
+        <v>7.019356326410589</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.47514745739325</v>
       </c>
       <c r="N24">
-        <v>10.96548905467148</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>19.52957282716536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.55588456412728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.40790210394305</v>
+        <v>14.49767704423473</v>
       </c>
       <c r="C25">
-        <v>14.1924244656044</v>
+        <v>9.575282154843121</v>
       </c>
       <c r="D25">
-        <v>7.879449099394551</v>
+        <v>13.23443737051769</v>
       </c>
       <c r="E25">
-        <v>6.305525703912871</v>
+        <v>14.64598161954498</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.059053380277777</v>
+        <v>25.80915309061859</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.937890508966768</v>
       </c>
       <c r="I25">
-        <v>15.0505855121034</v>
+        <v>2.829054535783158</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.849446995446378</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.81291152618538</v>
       </c>
       <c r="L25">
-        <v>7.797769436219058</v>
+        <v>6.654228426112703</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.27871779709429</v>
       </c>
       <c r="N25">
-        <v>11.3166584892875</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.5183613130855</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.42843885088186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36879310227368</v>
+        <v>13.34227040978238</v>
       </c>
       <c r="C2">
-        <v>8.808766197256087</v>
+        <v>9.080345743878642</v>
       </c>
       <c r="D2">
-        <v>12.44650782601257</v>
+        <v>12.46741089503834</v>
       </c>
       <c r="E2">
-        <v>13.73616788536572</v>
+        <v>13.77638189976992</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.44909927823221</v>
+        <v>24.05701306745123</v>
       </c>
       <c r="H2">
-        <v>2.256502708452626</v>
+        <v>2.200624290062746</v>
       </c>
       <c r="I2">
-        <v>3.008035211332196</v>
+        <v>2.882074347943735</v>
       </c>
       <c r="J2">
-        <v>9.897764128773414</v>
+        <v>9.974753448854663</v>
       </c>
       <c r="K2">
-        <v>14.99817387978042</v>
+        <v>14.41755543676098</v>
       </c>
       <c r="L2">
-        <v>6.371587096497872</v>
+        <v>12.03030846514923</v>
       </c>
       <c r="M2">
-        <v>12.30687409241352</v>
+        <v>9.276624996515981</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.399221968527103</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.40858094531507</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.4107141958596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.95926694699986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.53006937682581</v>
+        <v>12.53321847527858</v>
       </c>
       <c r="C3">
-        <v>8.308568495795361</v>
+        <v>8.474750526672867</v>
       </c>
       <c r="D3">
-        <v>11.88695715437926</v>
+        <v>11.91200665647783</v>
       </c>
       <c r="E3">
-        <v>13.08391183590807</v>
+        <v>13.13229581803805</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.15561911072421</v>
+        <v>23.89608576349008</v>
       </c>
       <c r="H3">
-        <v>2.483753762941719</v>
+        <v>2.418552644011768</v>
       </c>
       <c r="I3">
-        <v>3.15189501950576</v>
+        <v>3.009497472796466</v>
       </c>
       <c r="J3">
-        <v>9.924478431632696</v>
+        <v>9.979941882347955</v>
       </c>
       <c r="K3">
-        <v>15.10357420556111</v>
+        <v>14.54949674230675</v>
       </c>
       <c r="L3">
-        <v>6.17090248594769</v>
+        <v>12.19351401050985</v>
       </c>
       <c r="M3">
-        <v>11.61157524684146</v>
+        <v>9.343297628039481</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.203715448988486</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.69919163889825</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.38158172839222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.96550385942685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.98383917982958</v>
+        <v>12.00671495841559</v>
       </c>
       <c r="C4">
-        <v>7.989529538243935</v>
+        <v>8.086677738517922</v>
       </c>
       <c r="D4">
-        <v>11.53186658570933</v>
+        <v>11.55969345857714</v>
       </c>
       <c r="E4">
-        <v>12.66690632783757</v>
+        <v>12.72078605358643</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.98379459616316</v>
+        <v>23.80756250615419</v>
       </c>
       <c r="H4">
-        <v>2.62854744550356</v>
+        <v>2.557460112426138</v>
       </c>
       <c r="I4">
-        <v>3.24413963660863</v>
+        <v>3.091525994268181</v>
       </c>
       <c r="J4">
-        <v>9.943466268506574</v>
+        <v>9.98397779040457</v>
       </c>
       <c r="K4">
-        <v>15.17179288322901</v>
+        <v>14.63286530708884</v>
       </c>
       <c r="L4">
-        <v>6.043592852660801</v>
+        <v>12.29608610130422</v>
       </c>
       <c r="M4">
-        <v>11.16281250276364</v>
+        <v>9.401066034900547</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.079783259906995</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.24135479262855</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.36896619692948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.97356488531197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.75093594345618</v>
+        <v>11.78232575009292</v>
       </c>
       <c r="C5">
-        <v>7.866808824857781</v>
+        <v>7.935045457834303</v>
       </c>
       <c r="D5">
-        <v>11.38434745611082</v>
+        <v>11.41337064101905</v>
       </c>
       <c r="E5">
-        <v>12.49279892429204</v>
+        <v>12.54905056312501</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.90223275649198</v>
+        <v>23.76077142962918</v>
       </c>
       <c r="H5">
-        <v>2.689103610713725</v>
+        <v>2.615565550006383</v>
       </c>
       <c r="I5">
-        <v>3.285458596264784</v>
+        <v>3.129132190957763</v>
       </c>
       <c r="J5">
-        <v>9.949555587975725</v>
+        <v>9.98359647280035</v>
       </c>
       <c r="K5">
-        <v>15.1950442124198</v>
+        <v>14.66233926043514</v>
       </c>
       <c r="L5">
-        <v>5.990611742915113</v>
+        <v>12.33353164464623</v>
       </c>
       <c r="M5">
-        <v>10.97644375378283</v>
+        <v>9.426127192918161</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.028233505460957</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.05115002952565</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.35945522289243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.97243414410273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.70877532216325</v>
+        <v>11.74170009177574</v>
       </c>
       <c r="C6">
-        <v>7.858786641576923</v>
+        <v>7.922530506474431</v>
       </c>
       <c r="D6">
-        <v>11.35959032659279</v>
+        <v>11.38882041990935</v>
       </c>
       <c r="E6">
-        <v>12.46345351622902</v>
+        <v>12.52011494033359</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.87214162484172</v>
+        <v>23.73700233010471</v>
       </c>
       <c r="H6">
-        <v>2.699498129180053</v>
+        <v>2.625538447360672</v>
       </c>
       <c r="I6">
-        <v>3.295895761144632</v>
+        <v>3.139588177917569</v>
       </c>
       <c r="J6">
-        <v>9.947814587292042</v>
+        <v>9.98081376808676</v>
       </c>
       <c r="K6">
-        <v>15.19235453082717</v>
+        <v>14.66106896547747</v>
       </c>
       <c r="L6">
-        <v>5.981623429726943</v>
+        <v>12.33374881160251</v>
       </c>
       <c r="M6">
-        <v>10.94752677387742</v>
+        <v>9.427305505728695</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.019491799694659</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.02153906459341</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.35103506606005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.96565749749542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.97268750506703</v>
+        <v>11.99677050278184</v>
       </c>
       <c r="C7">
-        <v>8.021424938439964</v>
+        <v>8.113646581744925</v>
       </c>
       <c r="D7">
-        <v>11.529617849155</v>
+        <v>11.55726154259891</v>
       </c>
       <c r="E7">
-        <v>12.66405210426785</v>
+        <v>12.71757587552655</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.93736233079248</v>
+        <v>23.82951955421988</v>
       </c>
       <c r="H7">
-        <v>2.630049493462498</v>
+        <v>2.55943527600864</v>
       </c>
       <c r="I7">
-        <v>3.253992832700796</v>
+        <v>3.103488048207464</v>
       </c>
       <c r="J7">
-        <v>9.935944555484216</v>
+        <v>9.942783006890085</v>
       </c>
       <c r="K7">
-        <v>15.15408459681184</v>
+        <v>14.60987091533179</v>
       </c>
       <c r="L7">
-        <v>6.042531009294771</v>
+        <v>12.2743549420802</v>
       </c>
       <c r="M7">
-        <v>11.16663423514053</v>
+        <v>9.388495458350441</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.078481792401257</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.24366368860246</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.34999055460369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.94495722297161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.07624448518149</v>
+        <v>13.06256660142433</v>
       </c>
       <c r="C8">
-        <v>8.680272128939738</v>
+        <v>8.900456513357943</v>
       </c>
       <c r="D8">
-        <v>12.25573486130065</v>
+        <v>12.27741199351457</v>
       </c>
       <c r="E8">
-        <v>13.51415368142944</v>
+        <v>13.55591186330674</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.2873037540733</v>
+        <v>24.16254711122756</v>
       </c>
       <c r="H8">
-        <v>2.334634470545591</v>
+        <v>2.277185071172016</v>
       </c>
       <c r="I8">
-        <v>3.068711667003236</v>
+        <v>2.940743256607735</v>
       </c>
       <c r="J8">
-        <v>9.896456084840601</v>
+        <v>9.856707872455326</v>
       </c>
       <c r="K8">
-        <v>15.01001809684059</v>
+        <v>14.41925978820994</v>
       </c>
       <c r="L8">
-        <v>6.302833466049663</v>
+        <v>12.04833655936093</v>
       </c>
       <c r="M8">
-        <v>12.07956024193846</v>
+        <v>9.267971541923867</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.331410001587358</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.17227165978169</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.37487823105787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.90245899086153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.00513844384906</v>
+        <v>14.92525008166388</v>
       </c>
       <c r="C9">
-        <v>9.821752596458623</v>
+        <v>10.27785201840255</v>
       </c>
       <c r="D9">
-        <v>13.58257884248923</v>
+        <v>13.5950076432353</v>
       </c>
       <c r="E9">
-        <v>15.04592504755076</v>
+        <v>15.06962308776451</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.11948429052785</v>
+        <v>24.73179942643927</v>
       </c>
       <c r="H9">
-        <v>1.795126817242716</v>
+        <v>1.760385916262245</v>
       </c>
       <c r="I9">
-        <v>2.72080722349587</v>
+        <v>2.631662995481889</v>
       </c>
       <c r="J9">
-        <v>9.853754567197917</v>
+        <v>9.827830160148659</v>
       </c>
       <c r="K9">
-        <v>14.78853475813341</v>
+        <v>14.11797389931498</v>
       </c>
       <c r="L9">
-        <v>6.780063341025942</v>
+        <v>11.67134012420635</v>
       </c>
       <c r="M9">
-        <v>13.68372904994235</v>
+        <v>9.200940448738262</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.796688896516567</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.8085408726466</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.50049480530751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.92454335394524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.27070338018079</v>
+        <v>16.15485901046169</v>
       </c>
       <c r="C10">
-        <v>10.58949381611715</v>
+        <v>11.16283558149091</v>
       </c>
       <c r="D10">
-        <v>14.35465071251754</v>
+        <v>14.36047779094829</v>
       </c>
       <c r="E10">
-        <v>15.83036827207356</v>
+        <v>15.84145331065732</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.5431167448457</v>
+        <v>25.37123871257555</v>
       </c>
       <c r="H10">
-        <v>1.684977690393243</v>
+        <v>1.701186026142853</v>
       </c>
       <c r="I10">
-        <v>2.494453380263605</v>
+        <v>2.544976688179538</v>
       </c>
       <c r="J10">
-        <v>9.797653238111412</v>
+        <v>9.595249785132024</v>
       </c>
       <c r="K10">
-        <v>14.5771692157423</v>
+        <v>13.81759789282744</v>
       </c>
       <c r="L10">
-        <v>7.003164223000964</v>
+        <v>11.34181522959544</v>
       </c>
       <c r="M10">
-        <v>14.74836293346207</v>
+        <v>9.158899643344844</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.011055197685565</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.88623730789499</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.52474227594357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.81974612938352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.82539550757268</v>
+        <v>16.72311973537551</v>
       </c>
       <c r="C11">
-        <v>10.75805870493933</v>
+        <v>11.24267230769813</v>
       </c>
       <c r="D11">
-        <v>13.51835726690594</v>
+        <v>13.52125308275708</v>
       </c>
       <c r="E11">
-        <v>14.02421296382319</v>
+        <v>14.03002625446612</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.89033669092136</v>
+        <v>24.59722434190429</v>
       </c>
       <c r="H11">
-        <v>2.667124775851325</v>
+        <v>2.672195782026647</v>
       </c>
       <c r="I11">
-        <v>2.548325277077569</v>
+        <v>2.607270603898593</v>
       </c>
       <c r="J11">
-        <v>9.462081994872232</v>
+        <v>8.983473050268987</v>
       </c>
       <c r="K11">
-        <v>13.95796650436854</v>
+        <v>13.20699875360247</v>
       </c>
       <c r="L11">
-        <v>6.249600280261074</v>
+        <v>10.88368844730762</v>
       </c>
       <c r="M11">
-        <v>15.15627081582054</v>
+        <v>8.730026235285829</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.253847409332251</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.27266355512438</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.75813594018085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.98786659732473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.04775810308221</v>
+        <v>16.9617151615588</v>
       </c>
       <c r="C12">
-        <v>10.70221169335469</v>
+        <v>11.10170374383005</v>
       </c>
       <c r="D12">
-        <v>12.64240036514171</v>
+        <v>12.64456262640014</v>
       </c>
       <c r="E12">
-        <v>12.35967328692581</v>
+        <v>12.36426863758366</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.46190203981838</v>
+        <v>23.611733983118</v>
       </c>
       <c r="H12">
-        <v>4.051739342256213</v>
+        <v>4.049400145967727</v>
       </c>
       <c r="I12">
-        <v>2.556373415551655</v>
+        <v>2.612867123307317</v>
       </c>
       <c r="J12">
-        <v>9.203878571388003</v>
+        <v>8.677463224430058</v>
       </c>
       <c r="K12">
-        <v>13.5224839343479</v>
+        <v>12.82292240110241</v>
       </c>
       <c r="L12">
-        <v>5.658931205148657</v>
+        <v>10.62505958661779</v>
       </c>
       <c r="M12">
-        <v>15.27690350071738</v>
+        <v>8.417033468461858</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.662306615508948</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.37584750644795</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.13559167047291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.37861180316781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.02594728653711</v>
+        <v>16.9579023717811</v>
       </c>
       <c r="C13">
-        <v>10.50937894828567</v>
+        <v>10.82974529241241</v>
       </c>
       <c r="D13">
-        <v>11.66185227200936</v>
+        <v>11.66517013889179</v>
       </c>
       <c r="E13">
-        <v>10.6845074798692</v>
+        <v>10.69204421368945</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>22.04635837992815</v>
+        <v>22.1708582245526</v>
       </c>
       <c r="H13">
-        <v>5.511230773103606</v>
+        <v>5.508476463222596</v>
       </c>
       <c r="I13">
-        <v>2.523100578531743</v>
+        <v>2.58374849582299</v>
       </c>
       <c r="J13">
-        <v>8.979066532639722</v>
+        <v>8.574228802743569</v>
       </c>
       <c r="K13">
-        <v>13.17814070638023</v>
+        <v>12.57266874213301</v>
       </c>
       <c r="L13">
-        <v>5.180911524621204</v>
+        <v>10.47311213564312</v>
       </c>
       <c r="M13">
-        <v>15.19526017641514</v>
+        <v>8.172859371221335</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.186318696798196</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.28058304263249</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.55929142901915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.89606766613157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.8983127185335</v>
+        <v>16.84397212137386</v>
       </c>
       <c r="C14">
-        <v>10.31812682674435</v>
+        <v>10.584169697479</v>
       </c>
       <c r="D14">
-        <v>10.9193766389627</v>
+        <v>10.92438033079183</v>
       </c>
       <c r="E14">
-        <v>9.521091787295177</v>
+        <v>9.533076024799314</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>21.05740269632901</v>
+        <v>20.97058390703431</v>
       </c>
       <c r="H14">
-        <v>6.536564178880766</v>
+        <v>6.532961480608557</v>
       </c>
       <c r="I14">
-        <v>2.521079726699769</v>
+        <v>2.549648450524112</v>
       </c>
       <c r="J14">
-        <v>8.837357595847056</v>
+        <v>8.57113870408816</v>
       </c>
       <c r="K14">
-        <v>12.98079178718335</v>
+        <v>12.45380075964151</v>
       </c>
       <c r="L14">
-        <v>4.933155655076664</v>
+        <v>10.40621422269857</v>
       </c>
       <c r="M14">
-        <v>15.04726291790458</v>
+        <v>8.035726772462162</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.941402389335325</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.12443099953848</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.17787104025946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.61078299434811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.81183181050835</v>
+        <v>16.76145210351811</v>
       </c>
       <c r="C15">
-        <v>10.25193294272567</v>
+        <v>10.50506811077158</v>
       </c>
       <c r="D15">
-        <v>10.71551147639783</v>
+        <v>10.72135036884265</v>
       </c>
       <c r="E15">
-        <v>9.232617258890699</v>
+        <v>9.246788133624589</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>20.80789721146999</v>
+        <v>20.59252715418681</v>
       </c>
       <c r="H15">
-        <v>6.774840778161205</v>
+        <v>6.770738084238889</v>
       </c>
       <c r="I15">
-        <v>2.545418855015657</v>
+        <v>2.536149842058141</v>
       </c>
       <c r="J15">
-        <v>8.807811480596667</v>
+        <v>8.598438037236138</v>
       </c>
       <c r="K15">
-        <v>12.94604235655112</v>
+        <v>12.4440851854121</v>
       </c>
       <c r="L15">
-        <v>4.884350919327711</v>
+        <v>10.40284549125435</v>
       </c>
       <c r="M15">
-        <v>14.96923982053213</v>
+        <v>8.013161401996745</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.89395638089116</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.04502101814508</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.08983170680226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.5590220148948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.29602089577367</v>
+        <v>16.25163345074946</v>
       </c>
       <c r="C16">
-        <v>9.979173411383469</v>
+        <v>10.23179382831326</v>
       </c>
       <c r="D16">
-        <v>10.53471421229577</v>
+        <v>10.54442141701104</v>
       </c>
       <c r="E16">
-        <v>9.152146517125967</v>
+        <v>9.175561106722871</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20.86967281523095</v>
+        <v>20.04026189900586</v>
       </c>
       <c r="H16">
-        <v>6.575820307691843</v>
+        <v>6.568357006494314</v>
       </c>
       <c r="I16">
-        <v>2.640866620432111</v>
+        <v>2.573329430367743</v>
       </c>
       <c r="J16">
-        <v>8.874710344637659</v>
+        <v>8.878760162563978</v>
       </c>
       <c r="K16">
-        <v>13.10205864247652</v>
+        <v>12.64883141580601</v>
       </c>
       <c r="L16">
-        <v>4.868091059970077</v>
+        <v>10.54514914535054</v>
       </c>
       <c r="M16">
-        <v>14.54784031656255</v>
+        <v>8.135428796182646</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.883794141872912</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.62891819546476</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.18727666670722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.7629105584719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.96197697949945</v>
+        <v>15.91586243741524</v>
       </c>
       <c r="C17">
-        <v>9.873684679407353</v>
+        <v>10.14976686020105</v>
       </c>
       <c r="D17">
-        <v>10.80384505270882</v>
+        <v>10.81540492112248</v>
       </c>
       <c r="E17">
-        <v>9.712401005238597</v>
+        <v>9.739336784619869</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>21.44088992523499</v>
+        <v>20.33396794189698</v>
       </c>
       <c r="H17">
-        <v>5.84831122369556</v>
+        <v>5.837972039112154</v>
       </c>
       <c r="I17">
-        <v>2.69199184955789</v>
+        <v>2.617558482796898</v>
       </c>
       <c r="J17">
-        <v>8.999964084538489</v>
+        <v>9.090670419404457</v>
       </c>
       <c r="K17">
-        <v>13.3219731629657</v>
+        <v>12.86517974881453</v>
       </c>
       <c r="L17">
-        <v>4.971088920550823</v>
+        <v>10.69888284190796</v>
       </c>
       <c r="M17">
-        <v>14.30035317903219</v>
+        <v>8.290053813268779</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.989541053603221</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.38856172571351</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.46150376096077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.06047596568374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.76015599729624</v>
+        <v>15.70354331943216</v>
       </c>
       <c r="C18">
-        <v>9.881036401133549</v>
+        <v>10.2132227505395</v>
       </c>
       <c r="D18">
-        <v>11.49418618802982</v>
+        <v>11.50618970961671</v>
       </c>
       <c r="E18">
-        <v>10.95020886149735</v>
+        <v>10.9765818769764</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.55585767023292</v>
+        <v>21.2698955932373</v>
       </c>
       <c r="H18">
-        <v>4.606017320586474</v>
+        <v>4.59228106195552</v>
       </c>
       <c r="I18">
-        <v>2.698096004707699</v>
+        <v>2.619692638986268</v>
       </c>
       <c r="J18">
-        <v>9.197714605781313</v>
+        <v>9.310436104470845</v>
       </c>
       <c r="K18">
-        <v>13.64514900417626</v>
+        <v>13.14740998015589</v>
       </c>
       <c r="L18">
-        <v>5.278356306999883</v>
+        <v>10.90388288392599</v>
       </c>
       <c r="M18">
-        <v>14.17637184050955</v>
+        <v>8.508839505519546</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.297007300379185</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.27622938979322</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.93847806399809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.51132568933582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67177755667124</v>
+        <v>15.59816360503187</v>
       </c>
       <c r="C19">
-        <v>10.03128076538949</v>
+        <v>10.44493380580683</v>
       </c>
       <c r="D19">
-        <v>12.46644185416806</v>
+        <v>12.4778413331066</v>
       </c>
       <c r="E19">
-        <v>12.68890368568769</v>
+        <v>12.71236445878633</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.9726741441327</v>
+        <v>22.54401145594083</v>
       </c>
       <c r="H19">
-        <v>3.131111278422317</v>
+        <v>3.112495343084141</v>
       </c>
       <c r="I19">
-        <v>2.685979033730158</v>
+        <v>2.610402342008724</v>
       </c>
       <c r="J19">
-        <v>9.4332629265962</v>
+        <v>9.531563355270032</v>
       </c>
       <c r="K19">
-        <v>14.020978481377</v>
+        <v>13.45793466476835</v>
       </c>
       <c r="L19">
-        <v>5.83231123526943</v>
+        <v>11.13127071767726</v>
       </c>
       <c r="M19">
-        <v>14.17378650342719</v>
+        <v>8.758657013448769</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.849148568419146</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.28842601425965</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.52704805667978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.04325208157717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.92917428940899</v>
+        <v>15.82071948849035</v>
       </c>
       <c r="C20">
-        <v>10.47426579084348</v>
+        <v>11.03362394759625</v>
       </c>
       <c r="D20">
-        <v>14.14887662809425</v>
+        <v>14.15694632326576</v>
       </c>
       <c r="E20">
-        <v>15.61604113779453</v>
+        <v>15.63140736124532</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.28900603031027</v>
+        <v>24.83123031745924</v>
       </c>
       <c r="H20">
-        <v>1.589862164000248</v>
+        <v>1.612213673885628</v>
       </c>
       <c r="I20">
-        <v>2.585752786788206</v>
+        <v>2.524146171191281</v>
       </c>
       <c r="J20">
-        <v>9.786952528040597</v>
+        <v>9.745936648971378</v>
       </c>
       <c r="K20">
-        <v>14.57362517062467</v>
+        <v>13.8662936649487</v>
       </c>
       <c r="L20">
-        <v>6.940014165955259</v>
+        <v>11.4058744222077</v>
       </c>
       <c r="M20">
-        <v>14.49184216676858</v>
+        <v>9.140715979769288</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.950916277716408</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.62965940526485</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.45628957088498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.82516944106524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.85453418665174</v>
+        <v>16.72853282744804</v>
       </c>
       <c r="C21">
-        <v>11.06020023716123</v>
+        <v>11.64332402101853</v>
       </c>
       <c r="D21">
-        <v>14.93183843517303</v>
+        <v>14.93237606340692</v>
       </c>
       <c r="E21">
-        <v>16.58260133050627</v>
+        <v>16.5836137971049</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.98005587709661</v>
+        <v>26.90774686398996</v>
       </c>
       <c r="H21">
-        <v>1.871635796361027</v>
+        <v>1.873160523801606</v>
       </c>
       <c r="I21">
-        <v>2.60977867610841</v>
+        <v>2.661238683986666</v>
       </c>
       <c r="J21">
-        <v>9.808156538938123</v>
+        <v>9.079057350598115</v>
       </c>
       <c r="K21">
-        <v>14.52147915302976</v>
+        <v>13.60758824401747</v>
       </c>
       <c r="L21">
-        <v>7.267783852541607</v>
+        <v>11.14376264247163</v>
       </c>
       <c r="M21">
-        <v>15.28089105070234</v>
+        <v>9.099389185451129</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.268505767436115</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.41270113312887</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.6335493401774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.69525889251859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.44074954140589</v>
+        <v>17.30600247676789</v>
       </c>
       <c r="C22">
-        <v>11.38778989319943</v>
+        <v>11.97466210668745</v>
       </c>
       <c r="D22">
-        <v>15.3599850973218</v>
+        <v>15.3559101970203</v>
       </c>
       <c r="E22">
-        <v>17.06732957383699</v>
+        <v>17.05968857719188</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.38483034346221</v>
+        <v>28.34600834311448</v>
       </c>
       <c r="H22">
-        <v>2.046347710540133</v>
+        <v>2.0346803518906</v>
       </c>
       <c r="I22">
-        <v>2.716588544831567</v>
+        <v>2.749302918653882</v>
       </c>
       <c r="J22">
-        <v>9.816498310335248</v>
+        <v>8.665892495098424</v>
       </c>
       <c r="K22">
-        <v>14.48452996966012</v>
+        <v>13.42655273321924</v>
       </c>
       <c r="L22">
-        <v>7.423763833588904</v>
+        <v>10.97005526244837</v>
       </c>
       <c r="M22">
-        <v>15.76666128410742</v>
+        <v>9.070958241610409</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.418296126955291</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.8927703276691</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.73342304393372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.58070151148056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.1372696027353</v>
+        <v>17.00516014323708</v>
       </c>
       <c r="C23">
-        <v>11.18413106470727</v>
+        <v>11.77945667651242</v>
       </c>
       <c r="D23">
-        <v>15.13292274148549</v>
+        <v>15.13156969813069</v>
       </c>
       <c r="E23">
-        <v>16.8105914221601</v>
+        <v>16.80804832912164</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.21624977714612</v>
+        <v>27.4467515451357</v>
       </c>
       <c r="H23">
-        <v>1.954058883596363</v>
+        <v>1.950203959495453</v>
       </c>
       <c r="I23">
-        <v>2.654457190734818</v>
+        <v>2.696427678368801</v>
       </c>
       <c r="J23">
-        <v>9.820406392825506</v>
+        <v>8.949001044812674</v>
       </c>
       <c r="K23">
-        <v>14.52480005970591</v>
+        <v>13.55754326646258</v>
       </c>
       <c r="L23">
-        <v>7.341205246207509</v>
+        <v>11.0839862752339</v>
       </c>
       <c r="M23">
-        <v>15.50352744497531</v>
+        <v>9.11634959956678</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.339388836141193</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.63524989023834</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.70057798278663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.68776810225648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.92302727357818</v>
+        <v>15.81261140572765</v>
       </c>
       <c r="C24">
-        <v>10.43569908184279</v>
+        <v>11.00247953218004</v>
       </c>
       <c r="D24">
-        <v>14.24588959366946</v>
+        <v>14.25392102949204</v>
       </c>
       <c r="E24">
-        <v>15.8034667311407</v>
+        <v>15.81869188542401</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.5190410694477</v>
+        <v>25.03541493145617</v>
       </c>
       <c r="H24">
-        <v>1.59587117423704</v>
+        <v>1.618239678898624</v>
       </c>
       <c r="I24">
-        <v>2.564625593010967</v>
+        <v>2.500306538067835</v>
       </c>
       <c r="J24">
-        <v>9.827811064554796</v>
+        <v>9.787939633705271</v>
       </c>
       <c r="K24">
-        <v>14.65332428816322</v>
+        <v>13.93590532427368</v>
       </c>
       <c r="L24">
-        <v>7.019356326410589</v>
+        <v>11.45676763457746</v>
       </c>
       <c r="M24">
-        <v>14.47514745739325</v>
+        <v>9.196196365766447</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.030133150717728</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.61464770357782</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.55588456412728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.91833462089263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.49767704423473</v>
+        <v>14.43390927887036</v>
       </c>
       <c r="C25">
-        <v>9.575282154843121</v>
+        <v>9.978626679804485</v>
       </c>
       <c r="D25">
-        <v>13.23443737051769</v>
+        <v>13.2494607425596</v>
       </c>
       <c r="E25">
-        <v>14.64598161954498</v>
+        <v>14.6747074394711</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.80915309061859</v>
+        <v>24.39904379591951</v>
       </c>
       <c r="H25">
-        <v>1.937890508966768</v>
+        <v>1.89641234129403</v>
       </c>
       <c r="I25">
-        <v>2.829054535783158</v>
+        <v>2.732127351490881</v>
       </c>
       <c r="J25">
-        <v>9.849446995446378</v>
+        <v>9.868792432784845</v>
       </c>
       <c r="K25">
-        <v>14.81291152618538</v>
+        <v>14.17704569395185</v>
       </c>
       <c r="L25">
-        <v>6.654228426112703</v>
+        <v>11.7556827962038</v>
       </c>
       <c r="M25">
-        <v>13.27871779709429</v>
+        <v>9.188660685596776</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.674270891936408</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.39667001188756</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.42843885088186</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.89766479377639</v>
       </c>
     </row>
   </sheetData>
